--- a/Mini-HAT/TeenAstro_v3.0-Mini-HAT_5_Pick_n_Place.xlsx
+++ b/Mini-HAT/TeenAstro_v3.0-Mini-HAT_5_Pick_n_Place.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="484">
   <si>
     <t>Designator</t>
   </si>
@@ -82,1432 +82,1387 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>LM1220</t>
+    <t>PAD2</t>
+  </si>
+  <si>
+    <t>pad</t>
+  </si>
+  <si>
+    <t>PAD_1206</t>
+  </si>
+  <si>
+    <t>41.5mm</t>
+  </si>
+  <si>
+    <t>19.5mm</t>
+  </si>
+  <si>
+    <t>42.262mm</t>
+  </si>
+  <si>
+    <t>R29</t>
+  </si>
+  <si>
+    <t>0402WGF5362TCE</t>
+  </si>
+  <si>
+    <t>R0402</t>
+  </si>
+  <si>
+    <t>27.5mm</t>
+  </si>
+  <si>
+    <t>29.75mm</t>
+  </si>
+  <si>
+    <t>27.933mm</t>
+  </si>
+  <si>
+    <t>0402WGF5362TCE_53K6</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>0402WGF4703TCE</t>
+  </si>
+  <si>
+    <t>3.5mm</t>
+  </si>
+  <si>
+    <t>40.75mm</t>
+  </si>
+  <si>
+    <t>3.067mm</t>
+  </si>
+  <si>
+    <t>0402WGF4703TCE_470k</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>0402WGF1002TCE</t>
+  </si>
+  <si>
+    <t>1.25mm</t>
+  </si>
+  <si>
+    <t>0.817mm</t>
+  </si>
+  <si>
+    <t>0402WGF1002TCE_10k</t>
+  </si>
+  <si>
+    <t>C46</t>
+  </si>
+  <si>
+    <t>0402B102K500NT</t>
+  </si>
+  <si>
+    <t>C0402</t>
+  </si>
+  <si>
+    <t>26mm</t>
+  </si>
+  <si>
+    <t>29.25mm</t>
+  </si>
+  <si>
+    <t>28.705mm</t>
+  </si>
+  <si>
+    <t>0402B102K500NT_1nF 50V</t>
+  </si>
+  <si>
+    <t>C14</t>
+  </si>
+  <si>
+    <t>CL05B104KO5NNNC</t>
+  </si>
+  <si>
+    <t>C0402_NEW</t>
+  </si>
+  <si>
+    <t>24.75mm</t>
+  </si>
+  <si>
+    <t>12.5mm</t>
+  </si>
+  <si>
+    <t>11.955mm</t>
+  </si>
+  <si>
+    <t>CL05B104KO5NNNC_100nF 16V</t>
+  </si>
+  <si>
+    <t>C24</t>
+  </si>
+  <si>
+    <t>25.5mm</t>
+  </si>
+  <si>
+    <t>28.045mm</t>
+  </si>
+  <si>
+    <t>R61</t>
+  </si>
+  <si>
+    <t>32.25mm</t>
+  </si>
+  <si>
+    <t>47.5mm</t>
+  </si>
+  <si>
+    <t>32.683mm</t>
+  </si>
+  <si>
+    <t>R62</t>
+  </si>
+  <si>
+    <t>0402WGF220JTCE</t>
+  </si>
+  <si>
+    <t>46.5mm</t>
+  </si>
+  <si>
+    <t>31.817mm</t>
+  </si>
+  <si>
+    <t>0402WGF220JTCE_22</t>
+  </si>
+  <si>
+    <t>R63</t>
+  </si>
+  <si>
+    <t>30.75mm</t>
+  </si>
+  <si>
+    <t>47mm</t>
+  </si>
+  <si>
+    <t>47.433mm</t>
+  </si>
+  <si>
+    <t>R65</t>
+  </si>
+  <si>
+    <t>0402WGF5101TCE</t>
+  </si>
+  <si>
+    <t>39mm</t>
+  </si>
+  <si>
+    <t>48mm</t>
+  </si>
+  <si>
+    <t>48.433mm</t>
+  </si>
+  <si>
+    <t>0402WGF5101TCE_5K1</t>
+  </si>
+  <si>
+    <t>R64</t>
+  </si>
+  <si>
+    <t>36.5mm</t>
+  </si>
+  <si>
+    <t>49mm</t>
+  </si>
+  <si>
+    <t>36.067mm</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>18mm</t>
+  </si>
+  <si>
+    <t>42.045mm</t>
+  </si>
+  <si>
+    <t>R19</t>
+  </si>
+  <si>
+    <t>0402WGF3901TCE</t>
+  </si>
+  <si>
+    <t>42.75mm</t>
+  </si>
+  <si>
+    <t>16.5mm</t>
+  </si>
+  <si>
+    <t>16.067mm</t>
+  </si>
+  <si>
+    <t>0402WGF3901TCE_3K9</t>
+  </si>
+  <si>
+    <t>R18</t>
+  </si>
+  <si>
+    <t>R15</t>
+  </si>
+  <si>
+    <t>0402WGF1001TCE</t>
+  </si>
+  <si>
+    <t>40.25mm</t>
+  </si>
+  <si>
+    <t>0402WGF1001TCE_1K</t>
+  </si>
+  <si>
+    <t>C47</t>
+  </si>
+  <si>
+    <t>CL05C100JB5NNNC</t>
+  </si>
+  <si>
+    <t>29mm</t>
+  </si>
+  <si>
+    <t>CL05C100JB5NNNC_10pF 50V</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>CC0603KRX7R9BB104</t>
+  </si>
+  <si>
+    <t>C0603</t>
+  </si>
+  <si>
+    <t>16.75mm</t>
+  </si>
+  <si>
+    <t>2.5mm</t>
+  </si>
+  <si>
+    <t>17.45mm</t>
+  </si>
+  <si>
+    <t>CC0603KRX7R9BB104_100nF 50V</t>
+  </si>
+  <si>
+    <t>C21</t>
+  </si>
+  <si>
+    <t>24.25mm</t>
+  </si>
+  <si>
+    <t>23.55mm</t>
+  </si>
+  <si>
+    <t>C17</t>
+  </si>
+  <si>
+    <t>CL21B224KBFNNNE</t>
+  </si>
+  <si>
+    <t>C0805</t>
+  </si>
+  <si>
+    <t>8.75mm</t>
+  </si>
+  <si>
+    <t>7.72mm</t>
+  </si>
+  <si>
+    <t>CL21B224KBFNNNE_220nF 50V</t>
+  </si>
+  <si>
+    <t>C27</t>
+  </si>
+  <si>
+    <t>23mm</t>
+  </si>
+  <si>
+    <t>21.97mm</t>
+  </si>
+  <si>
+    <t>U7</t>
+  </si>
+  <si>
+    <t>NEO-6M TH</t>
+  </si>
+  <si>
+    <t>NEO-6M-GPS TH</t>
+  </si>
+  <si>
+    <t>41.92mm</t>
+  </si>
+  <si>
+    <t>35.66mm</t>
+  </si>
+  <si>
+    <t>39.47mm</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>C80</t>
+  </si>
+  <si>
+    <t>1mm</t>
+  </si>
+  <si>
+    <t>1.955mm</t>
+  </si>
+  <si>
+    <t>C81</t>
+  </si>
+  <si>
+    <t>13.25mm</t>
+  </si>
+  <si>
+    <t>13.795mm</t>
+  </si>
+  <si>
+    <t>R41</t>
+  </si>
+  <si>
+    <t>0402WGF4701TCE</t>
+  </si>
+  <si>
+    <t>39.75mm</t>
+  </si>
+  <si>
+    <t>5.75mm</t>
+  </si>
+  <si>
+    <t>5.317mm</t>
+  </si>
+  <si>
+    <t>0402WGF4701TCE_4K7</t>
+  </si>
+  <si>
+    <t>R42</t>
+  </si>
+  <si>
+    <t>38.75mm</t>
+  </si>
+  <si>
+    <t>R43</t>
+  </si>
+  <si>
+    <t>37.75mm</t>
+  </si>
+  <si>
+    <t>R44</t>
+  </si>
+  <si>
+    <t>36.75mm</t>
+  </si>
+  <si>
+    <t>C43</t>
+  </si>
+  <si>
+    <t>22.75mm</t>
+  </si>
+  <si>
+    <t>4.5mm</t>
+  </si>
+  <si>
+    <t>22.205mm</t>
+  </si>
+  <si>
+    <t>C42</t>
+  </si>
+  <si>
+    <t>6.295mm</t>
+  </si>
+  <si>
+    <t>VCC</t>
+  </si>
+  <si>
+    <t>test_point</t>
+  </si>
+  <si>
+    <t>TEST_POINT</t>
+  </si>
+  <si>
+    <t>12mm</t>
+  </si>
+  <si>
+    <t>36mm</t>
+  </si>
+  <si>
+    <t>3V3</t>
+  </si>
+  <si>
+    <t>29.9mm</t>
+  </si>
+  <si>
+    <t>26.5mm</t>
+  </si>
+  <si>
+    <t>5V</t>
+  </si>
+  <si>
+    <t>35.75mm</t>
+  </si>
+  <si>
+    <t>RA_ENA</t>
+  </si>
+  <si>
+    <t>23.75mm</t>
+  </si>
+  <si>
+    <t>-0.5mm</t>
+  </si>
+  <si>
+    <t>RA_CS</t>
+  </si>
+  <si>
+    <t>25mm</t>
+  </si>
+  <si>
+    <t>RA_DIR</t>
+  </si>
+  <si>
+    <t>22.5mm</t>
+  </si>
+  <si>
+    <t>9.5mm</t>
+  </si>
+  <si>
+    <t>RA_STEP</t>
+  </si>
+  <si>
+    <t>10.75mm</t>
+  </si>
+  <si>
+    <t>DEC_STEP</t>
+  </si>
+  <si>
+    <t>DEC_DIR</t>
+  </si>
+  <si>
+    <t>27.7mm</t>
+  </si>
+  <si>
+    <t>DEC_CS</t>
+  </si>
+  <si>
+    <t>28mm</t>
+  </si>
+  <si>
+    <t>DEC_ENA</t>
+  </si>
+  <si>
+    <t>26.75mm</t>
+  </si>
+  <si>
+    <t>SDI</t>
+  </si>
+  <si>
+    <t>SDO</t>
+  </si>
+  <si>
+    <t>8.25mm</t>
+  </si>
+  <si>
+    <t>27mm</t>
+  </si>
+  <si>
+    <t>SCK</t>
+  </si>
+  <si>
+    <t>RX_DEBUG</t>
+  </si>
+  <si>
+    <t>38.5mm</t>
+  </si>
+  <si>
+    <t>-4.75mm</t>
+  </si>
+  <si>
+    <t>TX_DEBUG</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>UUD1V221MNL1GS</t>
+  </si>
+  <si>
+    <t>CAP-SMD_BD8.0-L8.3-W8.3-FD</t>
+  </si>
+  <si>
+    <t>37.5mm</t>
+  </si>
+  <si>
+    <t>13.483mm</t>
+  </si>
+  <si>
+    <t>UUD1V221MNL1GS_220uF</t>
+  </si>
+  <si>
+    <t>U9</t>
+  </si>
+  <si>
+    <t>RaspberryPi Hat</t>
+  </si>
+  <si>
+    <t>RASBERRYPI-3-HAT</t>
+  </si>
+  <si>
+    <t>23.135mm</t>
+  </si>
+  <si>
+    <t>45.73mm</t>
+  </si>
+  <si>
+    <t>49.63mm</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>TMC2660-PA</t>
+  </si>
+  <si>
+    <t>PQFP44_WITH_PADS</t>
+  </si>
+  <si>
+    <t>16mm</t>
+  </si>
+  <si>
+    <t>10mm</t>
+  </si>
+  <si>
+    <t>20mm</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>SMD1812P300SLR/24</t>
+  </si>
+  <si>
+    <t>F1812</t>
+  </si>
+  <si>
+    <t>-2.5mm</t>
+  </si>
+  <si>
+    <t>44.195mm</t>
+  </si>
+  <si>
+    <t>F22</t>
+  </si>
+  <si>
+    <t>24.805mm</t>
+  </si>
+  <si>
+    <t>F21</t>
+  </si>
+  <si>
+    <t>30.5mm</t>
+  </si>
+  <si>
+    <t>28.195mm</t>
+  </si>
+  <si>
+    <t>F12</t>
+  </si>
+  <si>
+    <t>6mm</t>
+  </si>
+  <si>
+    <t>3.695mm</t>
+  </si>
+  <si>
+    <t>F11</t>
+  </si>
+  <si>
+    <t>14mm</t>
+  </si>
+  <si>
+    <t>16.305mm</t>
+  </si>
+  <si>
+    <t>U6</t>
+  </si>
+  <si>
+    <t>TPS54331DR</t>
+  </si>
+  <si>
+    <t>SOIC-8_L5.0-W4.0-P1.27-LS6.0-BL</t>
+  </si>
+  <si>
+    <t>33.5mm</t>
+  </si>
+  <si>
+    <t>24.795mm</t>
+  </si>
+  <si>
+    <t>35.405mm</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>AMS1117-3.3</t>
+  </si>
+  <si>
+    <t>SOT-223-3_L6.5-W3.4-P2.30-LS7.0-BR</t>
+  </si>
+  <si>
+    <t>41.72mm</t>
+  </si>
+  <si>
+    <t>25.2mm</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>8.2uH</t>
+  </si>
+  <si>
+    <t>IND-SMD_L7.3-W6.8</t>
+  </si>
+  <si>
+    <t>27.25mm</t>
+  </si>
+  <si>
+    <t>41mm</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>SS54</t>
+  </si>
+  <si>
+    <t>SMA_L4.4-W2.8-LS5.4-R-RD</t>
+  </si>
+  <si>
+    <t>33mm</t>
+  </si>
+  <si>
+    <t>33.75mm</t>
+  </si>
+  <si>
+    <t>31.246mm</t>
+  </si>
+  <si>
+    <t>U80</t>
+  </si>
+  <si>
+    <t>TXB0108PWR</t>
+  </si>
+  <si>
+    <t>TSSOP-20_L6.5-W4.4-P0.65-LS6.4-BL</t>
+  </si>
+  <si>
+    <t>17.75mm</t>
+  </si>
+  <si>
+    <t>-2mm</t>
+  </si>
+  <si>
+    <t>14.825mm</t>
+  </si>
+  <si>
+    <t>-4.871mm</t>
+  </si>
+  <si>
+    <t>U5</t>
+  </si>
+  <si>
+    <t>M24C64-RMN6TP</t>
+  </si>
+  <si>
+    <t>11.5mm</t>
+  </si>
+  <si>
+    <t>39.095mm</t>
+  </si>
+  <si>
+    <t>8.795mm</t>
+  </si>
+  <si>
+    <t>ENCODERS</t>
+  </si>
+  <si>
+    <t>Header-Male-2.54_2x5</t>
+  </si>
+  <si>
+    <t>HDR-5X2/2.54</t>
+  </si>
+  <si>
+    <t>7.58mm</t>
+  </si>
+  <si>
+    <t>-3.73mm</t>
+  </si>
+  <si>
+    <t>-5mm</t>
+  </si>
+  <si>
+    <t>USB_LINK</t>
+  </si>
+  <si>
+    <t>USB_C</t>
+  </si>
+  <si>
+    <t>USB-C-SMD_TYPE-C-USB-18</t>
+  </si>
+  <si>
+    <t>53mm</t>
+  </si>
+  <si>
+    <t>34.43mm</t>
+  </si>
+  <si>
+    <t>55.91mm</t>
+  </si>
+  <si>
+    <t>TV60</t>
+  </si>
+  <si>
+    <t>SRV05-4-P-T7</t>
+  </si>
+  <si>
+    <t>SOT-23-6_L2.9-W1.6-P0.95-LS2.8-BR</t>
+  </si>
+  <si>
+    <t>31.75mm</t>
+  </si>
+  <si>
+    <t>50mm</t>
+  </si>
+  <si>
+    <t>30.35mm</t>
+  </si>
+  <si>
+    <t>50.95mm</t>
+  </si>
+  <si>
+    <t>LED2</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>LED0603-R-RD</t>
+  </si>
+  <si>
+    <t>31.25mm</t>
+  </si>
+  <si>
+    <t>55.5mm</t>
+  </si>
+  <si>
+    <t>54.649mm</t>
+  </si>
+  <si>
+    <t>LED1</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>56.351mm</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>RB751V40T1G</t>
+  </si>
+  <si>
+    <t>SOD-323_L1.8-W1.3-LS2.5-RD</t>
+  </si>
+  <si>
+    <t>32.578mm</t>
+  </si>
+  <si>
+    <t>REMOTE1</t>
+  </si>
+  <si>
+    <t>Jack 4pts</t>
+  </si>
+  <si>
+    <t>JACK_3.5_4PTS</t>
+  </si>
+  <si>
+    <t>25.923mm</t>
+  </si>
+  <si>
+    <t>49.966mm</t>
+  </si>
+  <si>
+    <t>57.866mm</t>
+  </si>
+  <si>
+    <t>22.623mm</t>
+  </si>
+  <si>
+    <t>54.366mm</t>
+  </si>
+  <si>
+    <t>U50</t>
+  </si>
+  <si>
+    <t>ATGM336H-5N31</t>
+  </si>
+  <si>
+    <t>GPSM-SMD_ATGM336H-TR</t>
+  </si>
+  <si>
+    <t>37.311mm</t>
+  </si>
+  <si>
+    <t>7.6mm</t>
+  </si>
+  <si>
+    <t>JP1</t>
+  </si>
+  <si>
+    <t>U.FL-R-SMT-1(80)</t>
+  </si>
+  <si>
+    <t>RF-SMD_734120114</t>
+  </si>
+  <si>
+    <t>28.597mm</t>
+  </si>
+  <si>
+    <t>C52</t>
+  </si>
+  <si>
+    <t>18.5mm</t>
+  </si>
+  <si>
+    <t>19.2mm</t>
+  </si>
+  <si>
+    <t>C45</t>
+  </si>
+  <si>
+    <t>CL10B822KB8NNNC</t>
+  </si>
+  <si>
+    <t>28.55mm</t>
+  </si>
+  <si>
+    <t>CL10B822KB8NNNC_8.2nF 50V</t>
+  </si>
+  <si>
+    <t>C40</t>
+  </si>
+  <si>
+    <t>CL31A476MPHNNNE</t>
+  </si>
+  <si>
+    <t>C1206</t>
+  </si>
+  <si>
+    <t>31.907mm</t>
+  </si>
+  <si>
+    <t>CL31A476MPHNNNE_47uF 10V</t>
+  </si>
+  <si>
+    <t>C44</t>
+  </si>
+  <si>
+    <t>L51</t>
+  </si>
+  <si>
+    <t>SDCL1005C47NJTDF</t>
+  </si>
+  <si>
+    <t>L0402</t>
+  </si>
+  <si>
+    <t>28.75mm</t>
+  </si>
+  <si>
+    <t>29.295mm</t>
+  </si>
+  <si>
+    <t>SDCL1005C47NJTDF_47nH</t>
+  </si>
+  <si>
+    <t>C38</t>
+  </si>
+  <si>
+    <t>100nF 50v</t>
+  </si>
+  <si>
+    <t>C_0603</t>
+  </si>
+  <si>
+    <t>25.75mm</t>
+  </si>
+  <si>
+    <t>24.9mm</t>
+  </si>
+  <si>
+    <t>C41</t>
+  </si>
+  <si>
+    <t>CL10A105KB8NNNC</t>
+  </si>
+  <si>
+    <t>5.5mm</t>
+  </si>
+  <si>
+    <t>6.2mm</t>
+  </si>
+  <si>
+    <t>CL10A105KB8NNNC_1uF 50V</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>CL05A106MQ5NUNC</t>
+  </si>
+  <si>
+    <t>32.75mm</t>
+  </si>
+  <si>
+    <t>25.955mm</t>
+  </si>
+  <si>
+    <t>CL05A106MQ5NUNC_10uF 6v3</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>CL05A105KA5NQNC</t>
+  </si>
+  <si>
+    <t>CL05A105KA5NQNC_1uF 25V</t>
+  </si>
+  <si>
+    <t>C15</t>
+  </si>
+  <si>
+    <t>23.5mm</t>
+  </si>
+  <si>
+    <t>13.045mm</t>
+  </si>
+  <si>
+    <t>C25</t>
+  </si>
+  <si>
+    <t>26.955mm</t>
+  </si>
+  <si>
+    <t>C51</t>
+  </si>
+  <si>
+    <t>31mm</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>1.75mm</t>
+  </si>
+  <si>
+    <t>1.05mm</t>
+  </si>
+  <si>
+    <t>C16</t>
+  </si>
+  <si>
+    <t>CL10B474KA8NNNC</t>
+  </si>
+  <si>
+    <t>8.5mm</t>
+  </si>
+  <si>
+    <t>11mm</t>
+  </si>
+  <si>
+    <t>11.7mm</t>
+  </si>
+  <si>
+    <t>CL10B474KA8NNNC_470nF 25V</t>
+  </si>
+  <si>
+    <t>C26</t>
+  </si>
+  <si>
+    <t>28.2mm</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>CL31A106KBHNNNE</t>
+  </si>
+  <si>
+    <t>9.75mm</t>
+  </si>
+  <si>
+    <t>40.343mm</t>
+  </si>
+  <si>
+    <t>CL31A106KBHNNNE_10uF 50V</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>16.25mm</t>
+  </si>
+  <si>
+    <t>21.407mm</t>
+  </si>
+  <si>
+    <t>C13</t>
+  </si>
+  <si>
+    <t>24.907mm</t>
+  </si>
+  <si>
+    <t>C22</t>
+  </si>
+  <si>
+    <t>34.25mm</t>
+  </si>
+  <si>
+    <t>35.843mm</t>
+  </si>
+  <si>
+    <t>C23</t>
+  </si>
+  <si>
+    <t>24.593mm</t>
+  </si>
+  <si>
+    <t>R9</t>
+  </si>
+  <si>
+    <t>0603WAF1001T5E</t>
+  </si>
+  <si>
+    <t>R0603</t>
+  </si>
+  <si>
+    <t>30.25mm</t>
+  </si>
+  <si>
+    <t>5.25mm</t>
+  </si>
+  <si>
+    <t>4.497mm</t>
+  </si>
+  <si>
+    <t>0603WAF1001T5E_1K</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>53.433mm</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>ERA2AEB1022X</t>
+  </si>
+  <si>
+    <t>28.5mm</t>
+  </si>
+  <si>
+    <t>32.067mm</t>
+  </si>
+  <si>
+    <t>ERA2AEB1022X_10K2</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>RT0603BRD071K87L</t>
+  </si>
+  <si>
+    <t>28.497mm</t>
+  </si>
+  <si>
+    <t>RT0603BRD071K87L_1K87</t>
+  </si>
+  <si>
+    <t>R11</t>
+  </si>
+  <si>
+    <t>0603WAF100JT5E</t>
+  </si>
+  <si>
+    <t>15.247mm</t>
+  </si>
+  <si>
+    <t>0603WAF100JT5E_10Ω</t>
+  </si>
+  <si>
+    <t>R13</t>
+  </si>
+  <si>
+    <t>4mm</t>
+  </si>
+  <si>
+    <t>4.753mm</t>
+  </si>
+  <si>
+    <t>R21</t>
+  </si>
+  <si>
+    <t>31.747mm</t>
+  </si>
+  <si>
+    <t>R23</t>
+  </si>
+  <si>
+    <t>20.5mm</t>
+  </si>
+  <si>
+    <t>21.253mm</t>
+  </si>
+  <si>
+    <t>R12</t>
+  </si>
+  <si>
+    <t>STE1206A1W0R075F</t>
+  </si>
+  <si>
+    <t>R1206</t>
+  </si>
+  <si>
+    <t>7.75mm</t>
+  </si>
+  <si>
+    <t>15mm</t>
+  </si>
+  <si>
+    <t>16.479mm</t>
+  </si>
+  <si>
+    <t>STE1206A1W0R075F_0.075Ω</t>
+  </si>
+  <si>
+    <t>R14</t>
+  </si>
+  <si>
+    <t>5mm</t>
+  </si>
+  <si>
+    <t>3.521mm</t>
+  </si>
+  <si>
+    <t>R22</t>
+  </si>
+  <si>
+    <t>31.5mm</t>
+  </si>
+  <si>
+    <t>32.979mm</t>
+  </si>
+  <si>
+    <t>R24</t>
+  </si>
+  <si>
+    <t>21.5mm</t>
+  </si>
+  <si>
+    <t>20.021mm</t>
+  </si>
+  <si>
+    <t>U83</t>
+  </si>
+  <si>
+    <t>MT9700</t>
+  </si>
+  <si>
+    <t>SOT-23-5_L3.0-W1.7-P0.95-LS2.8-BR</t>
+  </si>
+  <si>
+    <t>42.5mm</t>
+  </si>
+  <si>
+    <t>47.75mm</t>
+  </si>
+  <si>
+    <t>43.8mm</t>
+  </si>
+  <si>
+    <t>46.8mm</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>47.25mm</t>
+  </si>
+  <si>
+    <t>34.407mm</t>
+  </si>
+  <si>
+    <t>R66</t>
+  </si>
+  <si>
+    <t>0402WGF3301TCE</t>
+  </si>
+  <si>
+    <t>40mm</t>
+  </si>
+  <si>
+    <t>47.567mm</t>
+  </si>
+  <si>
+    <t>0402WGF3301TCE_3K3</t>
+  </si>
+  <si>
+    <t>MK1</t>
+  </si>
+  <si>
+    <t>NF-04</t>
+  </si>
+  <si>
+    <t>WIRELM-SMD_NRF24L01</t>
+  </si>
+  <si>
+    <t>38.113mm</t>
+  </si>
+  <si>
+    <t>43.28mm</t>
+  </si>
+  <si>
+    <t>44.55mm</t>
+  </si>
+  <si>
+    <t>MOT1</t>
+  </si>
+  <si>
+    <t>Stepper_motor_horizontal</t>
+  </si>
+  <si>
+    <t>STEPPER_MOTOR_horizontal</t>
+  </si>
+  <si>
+    <t>4.25mm</t>
+  </si>
+  <si>
+    <t>MOT2</t>
+  </si>
+  <si>
+    <t>21.75mm</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>P6SMB30CA</t>
+  </si>
+  <si>
+    <t>SMB_L4.6-W3.6-LS5.3-BI</t>
+  </si>
+  <si>
+    <t>41.591mm</t>
+  </si>
+  <si>
+    <t>SW2</t>
+  </si>
+  <si>
+    <t>TS-1002N-10026</t>
+  </si>
+  <si>
+    <t>KEY-TH_4P-L7.5-W6.8-P4.50-LS7.2</t>
+  </si>
+  <si>
+    <t>17.25mm</t>
+  </si>
+  <si>
+    <t>54mm</t>
+  </si>
+  <si>
+    <t>55.27mm</t>
+  </si>
+  <si>
+    <t>DC-IN</t>
+  </si>
+  <si>
+    <t>三脚电源接口 DC005</t>
+  </si>
+  <si>
+    <t>DC-IN-TH_DC-005</t>
+  </si>
+  <si>
+    <t>50.5mm</t>
+  </si>
+  <si>
+    <t>1.6mm</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>BZT52C12</t>
+  </si>
+  <si>
+    <t>SOD-123_L2.7-W1.6-LS3.7-RD</t>
+  </si>
+  <si>
+    <t>38mm</t>
+  </si>
+  <si>
+    <t>36.39mm</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>DMP3013SFV-7</t>
+  </si>
+  <si>
+    <t>POWERPAK-1212-8_L3.1-W3.1-P0.65-LS3.3-BL</t>
+  </si>
+  <si>
+    <t>2mm</t>
+  </si>
+  <si>
+    <t>37.525mm</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>CR1220-2</t>
   </si>
   <si>
     <t>BAT-SMD_CR1220-2</t>
   </si>
   <si>
-    <t>31.448mm</t>
-  </si>
-  <si>
-    <t>10.2mm</t>
-  </si>
-  <si>
-    <t>2.2mm</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>Q1</t>
-  </si>
-  <si>
-    <t>AO4407A</t>
-  </si>
-  <si>
-    <t>SOIC-8_L4.9-W3.9-P1.27-LS6.0-BL</t>
-  </si>
-  <si>
-    <t>3.5mm</t>
-  </si>
-  <si>
-    <t>38.5mm</t>
-  </si>
-  <si>
-    <t>6.24mm</t>
-  </si>
-  <si>
-    <t>36.595mm</t>
-  </si>
-  <si>
-    <t>PAD2</t>
-  </si>
-  <si>
-    <t>pad</t>
-  </si>
-  <si>
-    <t>PAD_1206</t>
-  </si>
-  <si>
-    <t>41.5mm</t>
-  </si>
-  <si>
-    <t>19.5mm</t>
-  </si>
-  <si>
-    <t>42.262mm</t>
-  </si>
-  <si>
-    <t>DC1</t>
-  </si>
-  <si>
-    <t>三脚电源接口 DC005</t>
-  </si>
-  <si>
-    <t>DC-IN-TH_DC-005</t>
-  </si>
-  <si>
-    <t>4mm</t>
-  </si>
-  <si>
-    <t>50.5mm</t>
-  </si>
-  <si>
-    <t>1.6mm</t>
-  </si>
-  <si>
-    <t>50mm</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>R29</t>
-  </si>
-  <si>
-    <t>0402WGF5362TCE</t>
-  </si>
-  <si>
-    <t>R0402</t>
-  </si>
-  <si>
-    <t>17mm</t>
-  </si>
-  <si>
-    <t>45.25mm</t>
-  </si>
-  <si>
-    <t>44.817mm</t>
-  </si>
-  <si>
-    <t>0402WGF5362TCE_53K6</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>0402WGF4703TCE</t>
-  </si>
-  <si>
-    <t>8mm</t>
-  </si>
-  <si>
-    <t>39.25mm</t>
-  </si>
-  <si>
-    <t>39.683mm</t>
-  </si>
-  <si>
-    <t>0402WGF4703TCE_470k</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>0402WGF1002TCE</t>
-  </si>
-  <si>
-    <t>8.5mm</t>
-  </si>
-  <si>
-    <t>41mm</t>
-  </si>
-  <si>
-    <t>8.933mm</t>
-  </si>
-  <si>
-    <t>0402WGF1002TCE_10k</t>
-  </si>
-  <si>
-    <t>C46</t>
-  </si>
-  <si>
-    <t>0402B102K500NT</t>
-  </si>
-  <si>
-    <t>C0402</t>
-  </si>
-  <si>
-    <t>15mm</t>
-  </si>
-  <si>
-    <t>46mm</t>
-  </si>
-  <si>
-    <t>14.455mm</t>
-  </si>
-  <si>
-    <t>0402B102K500NT_1nF 50V</t>
-  </si>
-  <si>
-    <t>C14</t>
-  </si>
-  <si>
-    <t>CL05B104KO5NNNC</t>
-  </si>
-  <si>
-    <t>C0402_NEW</t>
-  </si>
-  <si>
-    <t>25.5mm</t>
-  </si>
-  <si>
-    <t>12.5mm</t>
-  </si>
-  <si>
-    <t>11.955mm</t>
-  </si>
-  <si>
-    <t>CL05B104KO5NNNC_100nF 16V</t>
-  </si>
-  <si>
-    <t>C24</t>
-  </si>
-  <si>
-    <t>27.5mm</t>
-  </si>
-  <si>
-    <t>26.75mm</t>
-  </si>
-  <si>
-    <t>28.045mm</t>
-  </si>
-  <si>
-    <t>R61</t>
-  </si>
-  <si>
-    <t>31.5mm</t>
-  </si>
-  <si>
-    <t>47.5mm</t>
-  </si>
-  <si>
-    <t>31.933mm</t>
-  </si>
-  <si>
-    <t>R62</t>
-  </si>
-  <si>
-    <t>0402WGF220JTCE</t>
-  </si>
-  <si>
-    <t>46.5mm</t>
-  </si>
-  <si>
-    <t>31.067mm</t>
-  </si>
-  <si>
-    <t>0402WGF220JTCE_22</t>
-  </si>
-  <si>
-    <t>R63</t>
-  </si>
-  <si>
-    <t>29.75mm</t>
-  </si>
-  <si>
-    <t>47.25mm</t>
-  </si>
-  <si>
-    <t>47.683mm</t>
-  </si>
-  <si>
-    <t>R65</t>
-  </si>
-  <si>
-    <t>0402WGF5101TCE</t>
-  </si>
-  <si>
-    <t>39mm</t>
-  </si>
-  <si>
-    <t>48mm</t>
-  </si>
-  <si>
-    <t>48.433mm</t>
-  </si>
-  <si>
-    <t>0402WGF5101TCE_5K1</t>
-  </si>
-  <si>
-    <t>R64</t>
-  </si>
-  <si>
-    <t>36.5mm</t>
-  </si>
-  <si>
-    <t>49.25mm</t>
-  </si>
-  <si>
-    <t>36.067mm</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>18mm</t>
-  </si>
-  <si>
-    <t>42.045mm</t>
-  </si>
-  <si>
-    <t>R19</t>
-  </si>
-  <si>
-    <t>0402WGF3901TCE</t>
-  </si>
-  <si>
-    <t>42.75mm</t>
-  </si>
-  <si>
-    <t>16.5mm</t>
-  </si>
-  <si>
-    <t>16.067mm</t>
-  </si>
-  <si>
-    <t>0402WGF3901TCE_3K9</t>
-  </si>
-  <si>
-    <t>R18</t>
-  </si>
-  <si>
-    <t>R15</t>
-  </si>
-  <si>
-    <t>0402WGF1001TCE</t>
-  </si>
-  <si>
-    <t>40.25mm</t>
-  </si>
-  <si>
-    <t>0402WGF1001TCE_1K</t>
-  </si>
-  <si>
-    <t>C47</t>
-  </si>
-  <si>
-    <t>CL05C100JB5NNNC</t>
-  </si>
-  <si>
-    <t>44.75mm</t>
-  </si>
-  <si>
-    <t>CL05C100JB5NNNC_10pF 50V</t>
-  </si>
-  <si>
-    <t>C11</t>
-  </si>
-  <si>
-    <t>CC0603KRX7R9BB104</t>
-  </si>
-  <si>
-    <t>C0603</t>
-  </si>
-  <si>
-    <t>16.75mm</t>
-  </si>
-  <si>
-    <t>2.5mm</t>
-  </si>
-  <si>
-    <t>17.45mm</t>
-  </si>
-  <si>
-    <t>CC0603KRX7R9BB104_100nF 50V</t>
-  </si>
-  <si>
-    <t>C21</t>
-  </si>
-  <si>
-    <t>25mm</t>
-  </si>
-  <si>
-    <t>25.7mm</t>
-  </si>
-  <si>
-    <t>C17</t>
-  </si>
-  <si>
-    <t>CL21B224KBFNNNE</t>
-  </si>
-  <si>
-    <t>C0805</t>
-  </si>
-  <si>
-    <t>25.25mm</t>
-  </si>
-  <si>
-    <t>8.75mm</t>
-  </si>
-  <si>
-    <t>7.72mm</t>
-  </si>
-  <si>
-    <t>CL21B224KBFNNNE_220nF 50V</t>
-  </si>
-  <si>
-    <t>C27</t>
-  </si>
-  <si>
-    <t>24mm</t>
-  </si>
-  <si>
-    <t>22.97mm</t>
-  </si>
-  <si>
-    <t>U7</t>
-  </si>
-  <si>
-    <t>NEO-6M TH</t>
-  </si>
-  <si>
-    <t>NEO-6M-GPS TH</t>
-  </si>
-  <si>
-    <t>41.92mm</t>
-  </si>
-  <si>
-    <t>35.66mm</t>
-  </si>
-  <si>
-    <t>39.47mm</t>
-  </si>
-  <si>
-    <t>C80</t>
-  </si>
-  <si>
-    <t>1mm</t>
-  </si>
-  <si>
-    <t>1.955mm</t>
-  </si>
-  <si>
-    <t>C81</t>
-  </si>
-  <si>
-    <t>13.25mm</t>
-  </si>
-  <si>
-    <t>13.795mm</t>
-  </si>
-  <si>
-    <t>RESET</t>
-  </si>
-  <si>
-    <t>microswitch_lateral</t>
-  </si>
-  <si>
-    <t>MICROSWITCH_LATERAL</t>
-  </si>
-  <si>
-    <t>15.998mm</t>
-  </si>
-  <si>
-    <t>54.421mm</t>
-  </si>
-  <si>
-    <t>53.171mm</t>
-  </si>
-  <si>
-    <t>13.749mm</t>
-  </si>
-  <si>
-    <t>55.671mm</t>
-  </si>
-  <si>
-    <t>R41</t>
-  </si>
-  <si>
-    <t>0402WGF4701TCE</t>
-  </si>
-  <si>
-    <t>39.75mm</t>
-  </si>
-  <si>
-    <t>5.75mm</t>
-  </si>
-  <si>
-    <t>5.317mm</t>
-  </si>
-  <si>
-    <t>0402WGF4701TCE_4K7</t>
-  </si>
-  <si>
-    <t>R42</t>
-  </si>
-  <si>
-    <t>38.75mm</t>
-  </si>
-  <si>
-    <t>R43</t>
-  </si>
-  <si>
-    <t>37.75mm</t>
-  </si>
-  <si>
-    <t>R44</t>
-  </si>
-  <si>
-    <t>36.75mm</t>
-  </si>
-  <si>
-    <t>C43</t>
-  </si>
-  <si>
-    <t>22.75mm</t>
-  </si>
-  <si>
-    <t>4.5mm</t>
-  </si>
-  <si>
-    <t>22.205mm</t>
-  </si>
-  <si>
-    <t>C42</t>
-  </si>
-  <si>
-    <t>6.295mm</t>
-  </si>
-  <si>
-    <t>VCC</t>
-  </si>
-  <si>
-    <t>test_point</t>
-  </si>
-  <si>
-    <t>TEST_POINT</t>
-  </si>
-  <si>
-    <t>15.25mm</t>
-  </si>
-  <si>
-    <t>34.25mm</t>
-  </si>
-  <si>
-    <t>3V3</t>
-  </si>
-  <si>
-    <t>29.25mm</t>
-  </si>
-  <si>
-    <t>27.75mm</t>
-  </si>
-  <si>
-    <t>5V</t>
-  </si>
-  <si>
-    <t>38mm</t>
-  </si>
-  <si>
-    <t>RA_ENA</t>
-  </si>
-  <si>
-    <t>23.75mm</t>
-  </si>
-  <si>
-    <t>-0.5mm</t>
-  </si>
-  <si>
-    <t>RA_CS</t>
-  </si>
-  <si>
-    <t>RA_DIR</t>
-  </si>
-  <si>
-    <t>22.5mm</t>
-  </si>
-  <si>
-    <t>9.5mm</t>
-  </si>
-  <si>
-    <t>RA_STEP</t>
-  </si>
-  <si>
-    <t>10.75mm</t>
-  </si>
-  <si>
-    <t>DEC_STEP</t>
-  </si>
-  <si>
-    <t>29mm</t>
-  </si>
-  <si>
-    <t>DEC_DIR</t>
-  </si>
-  <si>
-    <t>27.7mm</t>
-  </si>
-  <si>
-    <t>DEC_CS</t>
-  </si>
-  <si>
-    <t>28mm</t>
-  </si>
-  <si>
-    <t>DEC_ENA</t>
-  </si>
-  <si>
-    <t>SDI</t>
-  </si>
-  <si>
-    <t>26.5mm</t>
-  </si>
-  <si>
-    <t>SDO</t>
-  </si>
-  <si>
-    <t>8.25mm</t>
-  </si>
-  <si>
-    <t>27mm</t>
-  </si>
-  <si>
-    <t>SCK</t>
-  </si>
-  <si>
-    <t>26mm</t>
-  </si>
-  <si>
-    <t>RX_DEBUG</t>
-  </si>
-  <si>
-    <t>-4.75mm</t>
-  </si>
-  <si>
-    <t>TX_DEBUG</t>
-  </si>
-  <si>
-    <t>C10</t>
-  </si>
-  <si>
-    <t>UUD1V221MNL1GS</t>
-  </si>
-  <si>
-    <t>CAP-SMD_BD8.0-L8.3-W8.3-FD</t>
-  </si>
-  <si>
-    <t>32.75mm</t>
-  </si>
-  <si>
-    <t>24.483mm</t>
-  </si>
-  <si>
-    <t>UUD1V221MNL1GS_220uF</t>
-  </si>
-  <si>
-    <t>U9</t>
-  </si>
-  <si>
-    <t>RaspberryPi Hat</t>
-  </si>
-  <si>
-    <t>RASBERRYPI-3-HAT</t>
-  </si>
-  <si>
-    <t>23.135mm</t>
-  </si>
-  <si>
-    <t>47mm</t>
-  </si>
-  <si>
-    <t>45.73mm</t>
-  </si>
-  <si>
-    <t>49.63mm</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>TMC2660-PA</t>
-  </si>
-  <si>
-    <t>PQFP44_WITH_PADS</t>
-  </si>
-  <si>
-    <t>10mm</t>
-  </si>
-  <si>
-    <t>20.5mm</t>
-  </si>
-  <si>
-    <t>16mm</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>SMD1812P300SLR/24</t>
-  </si>
-  <si>
-    <t>F1812</t>
-  </si>
-  <si>
-    <t>43.75mm</t>
-  </si>
-  <si>
-    <t>6.445mm</t>
-  </si>
-  <si>
-    <t>F22</t>
-  </si>
-  <si>
-    <t>24.805mm</t>
-  </si>
-  <si>
-    <t>F21</t>
-  </si>
-  <si>
-    <t>30.5mm</t>
-  </si>
-  <si>
-    <t>28.195mm</t>
-  </si>
-  <si>
-    <t>F12</t>
-  </si>
-  <si>
-    <t>6mm</t>
-  </si>
-  <si>
-    <t>3.695mm</t>
-  </si>
-  <si>
-    <t>F11</t>
-  </si>
-  <si>
-    <t>14mm</t>
-  </si>
-  <si>
-    <t>16.305mm</t>
-  </si>
-  <si>
-    <t>U6</t>
-  </si>
-  <si>
-    <t>TPS54331DR</t>
-  </si>
-  <si>
-    <t>SOIC-8_L5.0-W4.0-P1.27-LS6.0-BL</t>
-  </si>
-  <si>
-    <t>15.5mm</t>
-  </si>
-  <si>
-    <t>40mm</t>
-  </si>
-  <si>
-    <t>13.595mm</t>
-  </si>
-  <si>
-    <t>37.295mm</t>
-  </si>
-  <si>
-    <t>U2</t>
-  </si>
-  <si>
-    <t>AMS1117-3.3</t>
-  </si>
-  <si>
-    <t>SOT-223-3_L6.5-W3.4-P2.30-LS7.0-BR</t>
-  </si>
-  <si>
-    <t>41.72mm</t>
-  </si>
-  <si>
-    <t>25.2mm</t>
-  </si>
-  <si>
-    <t>L1</t>
-  </si>
-  <si>
-    <t>8.2uH</t>
-  </si>
-  <si>
-    <t>IND-SMD_L7.3-W6.8</t>
-  </si>
-  <si>
-    <t>20.75mm</t>
-  </si>
-  <si>
-    <t>D6</t>
-  </si>
-  <si>
-    <t>SS54</t>
-  </si>
-  <si>
-    <t>SMA_L4.4-W2.8-LS5.4-R-RD</t>
-  </si>
-  <si>
-    <t>48.75mm</t>
-  </si>
-  <si>
-    <t>17.504mm</t>
-  </si>
-  <si>
-    <t>U80</t>
-  </si>
-  <si>
-    <t>TXB0108PWR</t>
-  </si>
-  <si>
-    <t>TSSOP-20_L6.5-W4.4-P0.65-LS6.4-BL</t>
-  </si>
-  <si>
-    <t>17.75mm</t>
-  </si>
-  <si>
-    <t>-2mm</t>
-  </si>
-  <si>
-    <t>14.825mm</t>
-  </si>
-  <si>
-    <t>-4.871mm</t>
-  </si>
-  <si>
-    <t>U5</t>
-  </si>
-  <si>
-    <t>M24C64-RMN6TP</t>
-  </si>
-  <si>
-    <t>11.5mm</t>
-  </si>
-  <si>
-    <t>39.095mm</t>
-  </si>
-  <si>
-    <t>8.795mm</t>
-  </si>
-  <si>
-    <t>ENCODERS</t>
-  </si>
-  <si>
-    <t>Header-Male-2.54_2x5</t>
-  </si>
-  <si>
-    <t>HDR-5X2/2.54</t>
-  </si>
-  <si>
-    <t>7.58mm</t>
-  </si>
-  <si>
-    <t>-3.73mm</t>
-  </si>
-  <si>
-    <t>-5mm</t>
-  </si>
-  <si>
-    <t>USB_LINK</t>
-  </si>
-  <si>
-    <t>USB_C</t>
-  </si>
-  <si>
-    <t>USB-C-SMD_TYPE-C-USB-18</t>
-  </si>
-  <si>
-    <t>53.25mm</t>
-  </si>
-  <si>
-    <t>34.43mm</t>
-  </si>
-  <si>
-    <t>56.16mm</t>
-  </si>
-  <si>
-    <t>TV60</t>
-  </si>
-  <si>
-    <t>SRV05-4-P-T7</t>
-  </si>
-  <si>
-    <t>SOT-23-6_L2.9-W1.6-P0.95-LS2.8-BR</t>
-  </si>
-  <si>
-    <t>31.25mm</t>
-  </si>
-  <si>
-    <t>29.85mm</t>
-  </si>
-  <si>
-    <t>50.95mm</t>
-  </si>
-  <si>
-    <t>LED2</t>
-  </si>
-  <si>
-    <t>Error</t>
-  </si>
-  <si>
-    <t>LED0603-R-RD</t>
-  </si>
-  <si>
-    <t>55.5mm</t>
-  </si>
-  <si>
-    <t>54.649mm</t>
-  </si>
-  <si>
-    <t>LED1</t>
-  </si>
-  <si>
-    <t>power</t>
-  </si>
-  <si>
-    <t>32.25mm</t>
-  </si>
-  <si>
-    <t>56.351mm</t>
-  </si>
-  <si>
-    <t>D5</t>
-  </si>
-  <si>
-    <t>RB751V40T1G</t>
-  </si>
-  <si>
-    <t>SOD-323_L1.8-W1.3-LS2.5-RD</t>
-  </si>
-  <si>
-    <t>33.75mm</t>
-  </si>
-  <si>
-    <t>32.578mm</t>
-  </si>
-  <si>
-    <t>REMOTE1</t>
-  </si>
-  <si>
-    <t>Jack 4pts</t>
-  </si>
-  <si>
-    <t>JACK_3.5_4PTS</t>
-  </si>
-  <si>
-    <t>50.099mm</t>
-  </si>
-  <si>
-    <t>58mm</t>
-  </si>
-  <si>
-    <t>21.7mm</t>
-  </si>
-  <si>
-    <t>54.499mm</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>P6SMB30CA</t>
-  </si>
-  <si>
-    <t>SMB_L4.6-W3.6-LS5.3-BI</t>
-  </si>
-  <si>
-    <t>-2.5mm</t>
-  </si>
-  <si>
-    <t>42.341mm</t>
-  </si>
-  <si>
-    <t>U50</t>
-  </si>
-  <si>
-    <t>ATGM336H-5N31</t>
-  </si>
-  <si>
-    <t>GPSM-SMD_ATGM336H-TR</t>
-  </si>
-  <si>
-    <t>12mm</t>
-  </si>
-  <si>
-    <t>37.311mm</t>
-  </si>
-  <si>
-    <t>7.6mm</t>
-  </si>
-  <si>
-    <t>JP1</t>
-  </si>
-  <si>
-    <t>U.FL-R-SMT-1(80)</t>
-  </si>
-  <si>
-    <t>RF-SMD_734120114</t>
-  </si>
-  <si>
-    <t>23.5mm</t>
-  </si>
-  <si>
-    <t>22.847mm</t>
-  </si>
-  <si>
-    <t>C52</t>
-  </si>
-  <si>
-    <t>18.5mm</t>
-  </si>
-  <si>
-    <t>19.2mm</t>
-  </si>
-  <si>
-    <t>C45</t>
-  </si>
-  <si>
-    <t>CL10B822KB8NNNC</t>
-  </si>
-  <si>
-    <t>18.75mm</t>
-  </si>
-  <si>
-    <t>38.25mm</t>
-  </si>
-  <si>
-    <t>38.95mm</t>
-  </si>
-  <si>
-    <t>CL10B822KB8NNNC_8.2nF 50V</t>
-  </si>
-  <si>
-    <t>C40</t>
-  </si>
-  <si>
-    <t>CL31A476MPHNNNE</t>
-  </si>
-  <si>
-    <t>C1206</t>
-  </si>
-  <si>
-    <t>42mm</t>
-  </si>
-  <si>
-    <t>43.593mm</t>
-  </si>
-  <si>
-    <t>CL31A476MPHNNNE_47uF 10V</t>
-  </si>
-  <si>
-    <t>C44</t>
-  </si>
-  <si>
-    <t>L51</t>
-  </si>
-  <si>
-    <t>SDCL1005C47NJTDF</t>
-  </si>
-  <si>
-    <t>L0402</t>
-  </si>
-  <si>
-    <t>21mm</t>
-  </si>
-  <si>
-    <t>30.295mm</t>
-  </si>
-  <si>
-    <t>SDCL1005C47NJTDF_47nH</t>
-  </si>
-  <si>
-    <t>C38</t>
-  </si>
-  <si>
-    <t>100nF 50v</t>
-  </si>
-  <si>
-    <t>C_0603</t>
-  </si>
-  <si>
-    <t>12.25mm</t>
-  </si>
-  <si>
-    <t>38.9mm</t>
-  </si>
-  <si>
-    <t>C41</t>
-  </si>
-  <si>
-    <t>CL10A105KB8NNNC</t>
-  </si>
-  <si>
-    <t>5.5mm</t>
-  </si>
-  <si>
-    <t>6.2mm</t>
-  </si>
-  <si>
-    <t>CL10A105KB8NNNC_1uF 50V</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>CL05A106MQ5NUNC</t>
-  </si>
-  <si>
-    <t>28.25mm</t>
-  </si>
-  <si>
-    <t>27.705mm</t>
-  </si>
-  <si>
-    <t>CL05A106MQ5NUNC_10uF 6v3</t>
-  </si>
-  <si>
-    <t>C6</t>
-  </si>
-  <si>
-    <t>CL05A105KA5NQNC</t>
-  </si>
-  <si>
-    <t>CL05A105KA5NQNC_1uF 25V</t>
-  </si>
-  <si>
-    <t>C15</t>
-  </si>
-  <si>
-    <t>24.5mm</t>
-  </si>
-  <si>
-    <t>13.045mm</t>
-  </si>
-  <si>
-    <t>C25</t>
-  </si>
-  <si>
-    <t>26.955mm</t>
-  </si>
-  <si>
-    <t>C51</t>
-  </si>
-  <si>
-    <t>31mm</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>9mm</t>
-  </si>
-  <si>
-    <t>39.45mm</t>
-  </si>
-  <si>
-    <t>C16</t>
-  </si>
-  <si>
-    <t>CL10B474KA8NNNC</t>
-  </si>
-  <si>
-    <t>11mm</t>
-  </si>
-  <si>
-    <t>11.7mm</t>
-  </si>
-  <si>
-    <t>CL10B474KA8NNNC_470nF 25V</t>
-  </si>
-  <si>
-    <t>C26</t>
-  </si>
-  <si>
-    <t>28.2mm</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>ZMM5V6</t>
-  </si>
-  <si>
-    <t>LL-34_L3.5-W1.5-RD</t>
+    <t>31.45mm</t>
+  </si>
+  <si>
+    <t>10.25mm</t>
   </si>
   <si>
     <t>2.25mm</t>
-  </si>
-  <si>
-    <t>44mm</t>
-  </si>
-  <si>
-    <t>42.3mm</t>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>4.25mm</t>
-  </si>
-  <si>
-    <t>45.7mm</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>CL31A106KBHNNNE</t>
-  </si>
-  <si>
-    <t>10.5mm</t>
-  </si>
-  <si>
-    <t>40.343mm</t>
-  </si>
-  <si>
-    <t>CL31A106KBHNNNE_10uF 50V</t>
-  </si>
-  <si>
-    <t>C12</t>
-  </si>
-  <si>
-    <t>22.157mm</t>
-  </si>
-  <si>
-    <t>C13</t>
-  </si>
-  <si>
-    <t>24.907mm</t>
-  </si>
-  <si>
-    <t>C22</t>
-  </si>
-  <si>
-    <t>35.75mm</t>
-  </si>
-  <si>
-    <t>22.343mm</t>
-  </si>
-  <si>
-    <t>C23</t>
-  </si>
-  <si>
-    <t>19.75mm</t>
-  </si>
-  <si>
-    <t>25.343mm</t>
-  </si>
-  <si>
-    <t>R9</t>
-  </si>
-  <si>
-    <t>0603WAF1001T5E</t>
-  </si>
-  <si>
-    <t>R0603</t>
-  </si>
-  <si>
-    <t>30.25mm</t>
-  </si>
-  <si>
-    <t>6.253mm</t>
-  </si>
-  <si>
-    <t>0603WAF1001T5E_1K</t>
-  </si>
-  <si>
-    <t>R3</t>
-  </si>
-  <si>
-    <t>53.683mm</t>
-  </si>
-  <si>
-    <t>R6</t>
-  </si>
-  <si>
-    <t>ERA2AEB1022X</t>
-  </si>
-  <si>
-    <t>20mm</t>
-  </si>
-  <si>
-    <t>19.567mm</t>
-  </si>
-  <si>
-    <t>ERA2AEB1022X_10K2</t>
-  </si>
-  <si>
-    <t>R5</t>
-  </si>
-  <si>
-    <t>RT0603BRD071K87L</t>
-  </si>
-  <si>
-    <t>45mm</t>
-  </si>
-  <si>
-    <t>45.753mm</t>
-  </si>
-  <si>
-    <t>RT0603BRD071K87L_1K87</t>
-  </si>
-  <si>
-    <t>R11</t>
-  </si>
-  <si>
-    <t>0603WAF100JT5E</t>
-  </si>
-  <si>
-    <t>15.247mm</t>
-  </si>
-  <si>
-    <t>0603WAF100JT5E_10Ω</t>
-  </si>
-  <si>
-    <t>R13</t>
-  </si>
-  <si>
-    <t>4.753mm</t>
-  </si>
-  <si>
-    <t>R21</t>
-  </si>
-  <si>
-    <t>31.747mm</t>
-  </si>
-  <si>
-    <t>R23</t>
-  </si>
-  <si>
-    <t>21.253mm</t>
-  </si>
-  <si>
-    <t>R12</t>
-  </si>
-  <si>
-    <t>STE1206A1W0R075F</t>
-  </si>
-  <si>
-    <t>R1206</t>
-  </si>
-  <si>
-    <t>16.479mm</t>
-  </si>
-  <si>
-    <t>STE1206A1W0R075F_0.075Ω</t>
-  </si>
-  <si>
-    <t>R14</t>
-  </si>
-  <si>
-    <t>5mm</t>
-  </si>
-  <si>
-    <t>3.521mm</t>
-  </si>
-  <si>
-    <t>R22</t>
-  </si>
-  <si>
-    <t>32.979mm</t>
-  </si>
-  <si>
-    <t>R24</t>
-  </si>
-  <si>
-    <t>21.5mm</t>
-  </si>
-  <si>
-    <t>20.021mm</t>
-  </si>
-  <si>
-    <t>SWITCH</t>
-  </si>
-  <si>
-    <t>X5511WV-02-C396D43-1220</t>
-  </si>
-  <si>
-    <t>HDR-TH_2P-P2.54-V-M</t>
-  </si>
-  <si>
-    <t>-3mm</t>
-  </si>
-  <si>
-    <t>47.77mm</t>
-  </si>
-  <si>
-    <t>U83</t>
-  </si>
-  <si>
-    <t>MT9700</t>
-  </si>
-  <si>
-    <t>SOT-23-5_L3.0-W1.7-P0.95-LS2.8-BR</t>
-  </si>
-  <si>
-    <t>42.5mm</t>
-  </si>
-  <si>
-    <t>47.75mm</t>
-  </si>
-  <si>
-    <t>43.8mm</t>
-  </si>
-  <si>
-    <t>46.8mm</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>35.25mm</t>
-  </si>
-  <si>
-    <t>33.657mm</t>
-  </si>
-  <si>
-    <t>R66</t>
-  </si>
-  <si>
-    <t>0402WGF3301TCE</t>
-  </si>
-  <si>
-    <t>47.567mm</t>
-  </si>
-  <si>
-    <t>0402WGF3301TCE_3K3</t>
-  </si>
-  <si>
-    <t>MK1</t>
-  </si>
-  <si>
-    <t>NF-04</t>
-  </si>
-  <si>
-    <t>WIRELM-SMD_NRF24L01</t>
-  </si>
-  <si>
-    <t>38.113mm</t>
-  </si>
-  <si>
-    <t>43.28mm</t>
-  </si>
-  <si>
-    <t>44.55mm</t>
-  </si>
-  <si>
-    <t>MOT1</t>
-  </si>
-  <si>
-    <t>Stepper_motor_horizontal</t>
-  </si>
-  <si>
-    <t>STEPPER_MOTOR_horizontal</t>
-  </si>
-  <si>
-    <t>MOT2</t>
-  </si>
-  <si>
-    <t>21.75mm</t>
   </si>
 </sst>
 </file>
@@ -1884,7 +1839,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M118"/>
+  <dimension ref="A1:M116"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100"/>
   </sheetViews>
@@ -1998,16 +1953,16 @@
         <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="K3">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="L3" t="s">
         <v>22</v>
@@ -2018,154 +1973,154 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
         <v>30</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>31</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>32</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>33</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" t="s">
         <v>34</v>
       </c>
-      <c r="F4" t="s">
+      <c r="I4" t="s">
         <v>33</v>
       </c>
-      <c r="G4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4">
+        <v>180</v>
+      </c>
+      <c r="L4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" t="s">
         <v>35</v>
-      </c>
-      <c r="I4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4">
-        <v>90</v>
-      </c>
-      <c r="L4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
         <v>37</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
         <v>38</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>39</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" t="s">
         <v>40</v>
       </c>
-      <c r="E5" t="s">
+      <c r="I5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" t="s">
         <v>41</v>
-      </c>
-      <c r="F5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5">
-        <v>180</v>
-      </c>
-      <c r="L5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
         <v>43</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
         <v>44</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" t="s">
         <v>45</v>
       </c>
-      <c r="D6" t="s">
+      <c r="I6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" t="s">
         <v>46</v>
-      </c>
-      <c r="E6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" t="s">
-        <v>49</v>
-      </c>
-      <c r="J6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6">
-        <v>270</v>
-      </c>
-      <c r="L6" t="s">
-        <v>50</v>
-      </c>
-      <c r="M6" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" t="s">
         <v>51</v>
       </c>
-      <c r="B7" t="s">
+      <c r="F7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" t="s">
         <v>52</v>
-      </c>
-      <c r="C7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H7" t="s">
-        <v>54</v>
-      </c>
-      <c r="I7" t="s">
-        <v>56</v>
       </c>
       <c r="J7" t="s">
         <v>21</v>
@@ -2177,77 +2132,77 @@
         <v>22</v>
       </c>
       <c r="M7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" t="s">
         <v>58</v>
       </c>
-      <c r="B8" t="s">
+      <c r="F8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I8" t="s">
         <v>59</v>
       </c>
-      <c r="C8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="J8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8">
+        <v>90</v>
+      </c>
+      <c r="L8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" t="s">
         <v>60</v>
-      </c>
-      <c r="E8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G8" t="s">
-        <v>61</v>
-      </c>
-      <c r="H8" t="s">
-        <v>60</v>
-      </c>
-      <c r="I8" t="s">
-        <v>62</v>
-      </c>
-      <c r="J8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8">
-        <v>270</v>
-      </c>
-      <c r="L8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M8" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F9" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="G9" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H9" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I9" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="J9" t="s">
         <v>21</v>
@@ -2259,200 +2214,200 @@
         <v>22</v>
       </c>
       <c r="M9" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F10" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="G10" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="H10" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="I10" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="J10" t="s">
         <v>21</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="L10" t="s">
         <v>22</v>
       </c>
       <c r="M10" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="E11" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="F11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="G11" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="H11" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="I11" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="J11" t="s">
         <v>21</v>
       </c>
       <c r="K11">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="L11" t="s">
         <v>22</v>
       </c>
       <c r="M11" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="E12" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="F12" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="G12" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="H12" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="I12" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J12" t="s">
         <v>21</v>
       </c>
       <c r="K12">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="L12" t="s">
         <v>22</v>
       </c>
       <c r="M12" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="E13" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F13" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G13" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H13" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="I13" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J13" t="s">
         <v>21</v>
       </c>
       <c r="K13">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="L13" t="s">
         <v>22</v>
       </c>
       <c r="M13" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B14" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E14" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="F14" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G14" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="H14" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="I14" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="J14" t="s">
         <v>21</v>
@@ -2464,200 +2419,200 @@
         <v>22</v>
       </c>
       <c r="M14" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B15" t="s">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D15" t="s">
-        <v>98</v>
+        <v>26</v>
       </c>
       <c r="E15" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="F15" t="s">
-        <v>98</v>
+        <v>26</v>
       </c>
       <c r="G15" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="H15" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="I15" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="J15" t="s">
         <v>21</v>
       </c>
       <c r="K15">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="L15" t="s">
         <v>22</v>
       </c>
       <c r="M15" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="B16" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="E16" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="F16" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="G16" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="H16" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="I16" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="J16" t="s">
         <v>21</v>
       </c>
       <c r="K16">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="L16" t="s">
         <v>22</v>
       </c>
       <c r="M16" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B17" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="D17" t="s">
-        <v>108</v>
+        <v>26</v>
       </c>
       <c r="E17" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="F17" t="s">
-        <v>108</v>
+        <v>26</v>
       </c>
       <c r="G17" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="H17" t="s">
-        <v>110</v>
+        <v>26</v>
       </c>
       <c r="I17" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="J17" t="s">
         <v>21</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="L17" t="s">
         <v>22</v>
       </c>
       <c r="M17" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="B18" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="C18" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="E18" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="F18" t="s">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="G18" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="H18" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="I18" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="J18" t="s">
         <v>21</v>
       </c>
       <c r="K18">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="L18" t="s">
         <v>22</v>
       </c>
       <c r="M18" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="B19" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D19" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="E19" t="s">
-        <v>117</v>
+        <v>51</v>
       </c>
       <c r="F19" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="G19" t="s">
-        <v>117</v>
+        <v>51</v>
       </c>
       <c r="H19" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="I19" t="s">
-        <v>118</v>
+        <v>52</v>
       </c>
       <c r="J19" t="s">
         <v>21</v>
@@ -2669,651 +2624,651 @@
         <v>22</v>
       </c>
       <c r="M19" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="B20" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="D20" t="s">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="E20" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F20" t="s">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="G20" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="H20" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="I20" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="J20" t="s">
         <v>21</v>
       </c>
       <c r="K20">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="L20" t="s">
         <v>22</v>
       </c>
       <c r="M20" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B21" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="D21" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="E21" t="s">
-        <v>117</v>
+        <v>62</v>
       </c>
       <c r="F21" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="G21" t="s">
-        <v>117</v>
+        <v>62</v>
       </c>
       <c r="H21" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="I21" t="s">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="J21" t="s">
         <v>21</v>
       </c>
       <c r="K21">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="L21" t="s">
         <v>22</v>
       </c>
       <c r="M21" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B22" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C22" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="D22" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="E22" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="F22" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="G22" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="H22" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="I22" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="J22" t="s">
         <v>21</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="L22" t="s">
         <v>22</v>
       </c>
       <c r="M22" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B23" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="C23" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="D23" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="E23" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="F23" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="G23" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="H23" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="I23" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="J23" t="s">
         <v>21</v>
       </c>
       <c r="K23">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="L23" t="s">
         <v>22</v>
       </c>
       <c r="M23" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="B24" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" t="s">
+        <v>126</v>
+      </c>
+      <c r="D24" t="s">
+        <v>127</v>
+      </c>
+      <c r="E24" t="s">
+        <v>128</v>
+      </c>
+      <c r="F24" t="s">
+        <v>127</v>
+      </c>
+      <c r="G24" t="s">
+        <v>128</v>
+      </c>
+      <c r="H24" t="s">
+        <v>127</v>
+      </c>
+      <c r="I24" t="s">
+        <v>129</v>
+      </c>
+      <c r="J24" t="s">
         <v>130</v>
       </c>
-      <c r="C24" t="s">
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24" t="s">
         <v>131</v>
       </c>
-      <c r="D24" t="s">
-        <v>137</v>
-      </c>
-      <c r="E24" t="s">
-        <v>86</v>
-      </c>
-      <c r="F24" t="s">
-        <v>137</v>
-      </c>
-      <c r="G24" t="s">
-        <v>86</v>
-      </c>
-      <c r="H24" t="s">
-        <v>138</v>
-      </c>
-      <c r="I24" t="s">
-        <v>86</v>
-      </c>
-      <c r="J24" t="s">
-        <v>21</v>
-      </c>
-      <c r="K24">
-        <v>180</v>
-      </c>
-      <c r="L24" t="s">
-        <v>22</v>
-      </c>
       <c r="M24" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B25" t="s">
-        <v>140</v>
+        <v>55</v>
       </c>
       <c r="C25" t="s">
-        <v>141</v>
+        <v>56</v>
       </c>
       <c r="D25" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="E25" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="F25" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="G25" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="H25" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="I25" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="J25" t="s">
         <v>21</v>
       </c>
       <c r="K25">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="L25" t="s">
         <v>22</v>
       </c>
       <c r="M25" t="s">
-        <v>145</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="B26" t="s">
-        <v>140</v>
+        <v>55</v>
       </c>
       <c r="C26" t="s">
-        <v>141</v>
+        <v>56</v>
       </c>
       <c r="D26" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E26" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="F26" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="G26" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="H26" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="I26" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="J26" t="s">
         <v>21</v>
       </c>
       <c r="K26">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="L26" t="s">
         <v>22</v>
       </c>
       <c r="M26" t="s">
-        <v>145</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="B27" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="C27" t="s">
-        <v>151</v>
+        <v>31</v>
       </c>
       <c r="D27" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="E27" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="F27" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="G27" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="H27" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="I27" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="J27" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="L27" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="M27" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="B28" t="s">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="C28" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="D28" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="E28" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="F28" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="G28" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="H28" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="I28" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="J28" t="s">
         <v>21</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="L28" t="s">
         <v>22</v>
       </c>
       <c r="M28" t="s">
-        <v>83</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="B29" t="s">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="C29" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="D29" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="E29" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="F29" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="G29" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="H29" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="I29" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="J29" t="s">
         <v>21</v>
       </c>
       <c r="K29">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="L29" t="s">
         <v>22</v>
       </c>
       <c r="M29" t="s">
-        <v>83</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="B30" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="C30" t="s">
-        <v>163</v>
+        <v>31</v>
       </c>
       <c r="D30" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="E30" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="F30" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="G30" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="H30" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="I30" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="J30" t="s">
         <v>21</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="L30" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="M30" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="B31" t="s">
-        <v>170</v>
+        <v>55</v>
       </c>
       <c r="C31" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D31" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="E31" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="F31" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="G31" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="H31" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="I31" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="J31" t="s">
         <v>21</v>
       </c>
       <c r="K31">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="L31" t="s">
         <v>22</v>
       </c>
       <c r="M31" t="s">
-        <v>174</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="B32" t="s">
-        <v>170</v>
+        <v>55</v>
       </c>
       <c r="C32" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D32" t="s">
-        <v>176</v>
+        <v>26</v>
       </c>
       <c r="E32" t="s">
-        <v>172</v>
+        <v>141</v>
       </c>
       <c r="F32" t="s">
-        <v>176</v>
+        <v>26</v>
       </c>
       <c r="G32" t="s">
-        <v>172</v>
+        <v>141</v>
       </c>
       <c r="H32" t="s">
-        <v>176</v>
+        <v>26</v>
       </c>
       <c r="I32" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="J32" t="s">
         <v>21</v>
       </c>
       <c r="K32">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="L32" t="s">
         <v>22</v>
       </c>
       <c r="M32" t="s">
-        <v>174</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="B33" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="C33" t="s">
-        <v>53</v>
+        <v>158</v>
       </c>
       <c r="D33" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="E33" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="F33" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="G33" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="H33" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="I33" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="J33" t="s">
         <v>21</v>
       </c>
       <c r="K33">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="L33" t="s">
         <v>22</v>
       </c>
       <c r="M33" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="B34" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="C34" t="s">
-        <v>53</v>
+        <v>158</v>
       </c>
       <c r="D34" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="E34" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="F34" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="G34" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="H34" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="I34" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="J34" t="s">
         <v>21</v>
       </c>
       <c r="K34">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="L34" t="s">
         <v>22</v>
       </c>
       <c r="M34" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="B35" t="s">
-        <v>78</v>
+        <v>157</v>
       </c>
       <c r="C35" t="s">
-        <v>79</v>
+        <v>158</v>
       </c>
       <c r="D35" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="E35" t="s">
-        <v>183</v>
+        <v>147</v>
       </c>
       <c r="F35" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="G35" t="s">
-        <v>183</v>
+        <v>147</v>
       </c>
       <c r="H35" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="I35" t="s">
-        <v>183</v>
+        <v>147</v>
       </c>
       <c r="J35" t="s">
         <v>21</v>
@@ -3325,203 +3280,203 @@
         <v>22</v>
       </c>
       <c r="M35" t="s">
-        <v>83</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="B36" t="s">
-        <v>78</v>
+        <v>157</v>
       </c>
       <c r="C36" t="s">
-        <v>79</v>
+        <v>158</v>
       </c>
       <c r="D36" t="s">
-        <v>40</v>
+        <v>167</v>
       </c>
       <c r="E36" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F36" t="s">
-        <v>40</v>
+        <v>167</v>
       </c>
       <c r="G36" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H36" t="s">
-        <v>40</v>
+        <v>167</v>
       </c>
       <c r="I36" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="J36" t="s">
-        <v>21</v>
+        <v>130</v>
       </c>
       <c r="K36">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="L36" t="s">
         <v>22</v>
       </c>
       <c r="M36" t="s">
-        <v>83</v>
+        <v>157</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="B37" t="s">
-        <v>188</v>
+        <v>157</v>
       </c>
       <c r="C37" t="s">
-        <v>189</v>
+        <v>158</v>
       </c>
       <c r="D37" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="E37" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="F37" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="G37" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="H37" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="I37" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="J37" t="s">
-        <v>21</v>
+        <v>130</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="L37" t="s">
         <v>22</v>
       </c>
       <c r="M37" t="s">
-        <v>188</v>
+        <v>157</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="B38" t="s">
-        <v>188</v>
+        <v>157</v>
       </c>
       <c r="C38" t="s">
-        <v>189</v>
+        <v>158</v>
       </c>
       <c r="D38" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="E38" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="F38" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="G38" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="H38" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="I38" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="J38" t="s">
-        <v>21</v>
+        <v>130</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="L38" t="s">
         <v>22</v>
       </c>
       <c r="M38" t="s">
-        <v>188</v>
+        <v>157</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="B39" t="s">
-        <v>188</v>
+        <v>157</v>
       </c>
       <c r="C39" t="s">
-        <v>189</v>
+        <v>158</v>
       </c>
       <c r="D39" t="s">
-        <v>98</v>
+        <v>172</v>
       </c>
       <c r="E39" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="F39" t="s">
-        <v>98</v>
+        <v>172</v>
       </c>
       <c r="G39" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="H39" t="s">
-        <v>98</v>
+        <v>172</v>
       </c>
       <c r="I39" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="J39" t="s">
-        <v>21</v>
+        <v>130</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="L39" t="s">
         <v>22</v>
       </c>
       <c r="M39" t="s">
-        <v>188</v>
+        <v>157</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="B40" t="s">
-        <v>188</v>
+        <v>157</v>
       </c>
       <c r="C40" t="s">
-        <v>189</v>
+        <v>158</v>
       </c>
       <c r="D40" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="E40" t="s">
-        <v>199</v>
+        <v>103</v>
       </c>
       <c r="F40" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="G40" t="s">
-        <v>199</v>
+        <v>103</v>
       </c>
       <c r="H40" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="I40" t="s">
-        <v>199</v>
+        <v>103</v>
       </c>
       <c r="J40" t="s">
-        <v>29</v>
+        <v>130</v>
       </c>
       <c r="K40">
         <v>180</v>
@@ -3530,39 +3485,39 @@
         <v>22</v>
       </c>
       <c r="M40" t="s">
-        <v>188</v>
+        <v>157</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="B41" t="s">
-        <v>188</v>
+        <v>157</v>
       </c>
       <c r="C41" t="s">
-        <v>189</v>
+        <v>158</v>
       </c>
       <c r="D41" t="s">
-        <v>137</v>
+        <v>172</v>
       </c>
       <c r="E41" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="F41" t="s">
-        <v>137</v>
+        <v>172</v>
       </c>
       <c r="G41" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="H41" t="s">
-        <v>137</v>
+        <v>172</v>
       </c>
       <c r="I41" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="J41" t="s">
-        <v>29</v>
+        <v>130</v>
       </c>
       <c r="K41">
         <v>180</v>
@@ -3571,39 +3526,39 @@
         <v>22</v>
       </c>
       <c r="M41" t="s">
-        <v>188</v>
+        <v>157</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="B42" t="s">
-        <v>188</v>
+        <v>157</v>
       </c>
       <c r="C42" t="s">
-        <v>189</v>
+        <v>158</v>
       </c>
       <c r="D42" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="E42" t="s">
-        <v>203</v>
+        <v>168</v>
       </c>
       <c r="F42" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="G42" t="s">
-        <v>203</v>
+        <v>168</v>
       </c>
       <c r="H42" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="I42" t="s">
-        <v>203</v>
+        <v>168</v>
       </c>
       <c r="J42" t="s">
-        <v>29</v>
+        <v>130</v>
       </c>
       <c r="K42">
         <v>180</v>
@@ -3612,39 +3567,39 @@
         <v>22</v>
       </c>
       <c r="M42" t="s">
-        <v>188</v>
+        <v>157</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="B43" t="s">
-        <v>188</v>
+        <v>157</v>
       </c>
       <c r="C43" t="s">
-        <v>189</v>
+        <v>158</v>
       </c>
       <c r="D43" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="E43" t="s">
-        <v>205</v>
+        <v>168</v>
       </c>
       <c r="F43" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="G43" t="s">
-        <v>205</v>
+        <v>168</v>
       </c>
       <c r="H43" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="I43" t="s">
-        <v>205</v>
+        <v>168</v>
       </c>
       <c r="J43" t="s">
-        <v>29</v>
+        <v>130</v>
       </c>
       <c r="K43">
         <v>180</v>
@@ -3653,39 +3608,39 @@
         <v>22</v>
       </c>
       <c r="M43" t="s">
-        <v>188</v>
+        <v>157</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="B44" t="s">
-        <v>188</v>
+        <v>157</v>
       </c>
       <c r="C44" t="s">
-        <v>189</v>
+        <v>158</v>
       </c>
       <c r="D44" t="s">
-        <v>202</v>
+        <v>173</v>
       </c>
       <c r="E44" t="s">
-        <v>207</v>
+        <v>163</v>
       </c>
       <c r="F44" t="s">
-        <v>202</v>
+        <v>173</v>
       </c>
       <c r="G44" t="s">
-        <v>207</v>
+        <v>163</v>
       </c>
       <c r="H44" t="s">
-        <v>202</v>
+        <v>173</v>
       </c>
       <c r="I44" t="s">
-        <v>207</v>
+        <v>163</v>
       </c>
       <c r="J44" t="s">
-        <v>29</v>
+        <v>130</v>
       </c>
       <c r="K44">
         <v>180</v>
@@ -3694,39 +3649,39 @@
         <v>22</v>
       </c>
       <c r="M44" t="s">
-        <v>188</v>
+        <v>157</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="B45" t="s">
-        <v>188</v>
+        <v>157</v>
       </c>
       <c r="C45" t="s">
-        <v>189</v>
+        <v>158</v>
       </c>
       <c r="D45" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="E45" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c r="F45" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="G45" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c r="H45" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="I45" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c r="J45" t="s">
-        <v>29</v>
+        <v>130</v>
       </c>
       <c r="K45">
         <v>180</v>
@@ -3735,39 +3690,39 @@
         <v>22</v>
       </c>
       <c r="M45" t="s">
-        <v>188</v>
+        <v>157</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="B46" t="s">
-        <v>188</v>
+        <v>157</v>
       </c>
       <c r="C46" t="s">
-        <v>189</v>
+        <v>158</v>
       </c>
       <c r="D46" t="s">
-        <v>211</v>
+        <v>175</v>
       </c>
       <c r="E46" t="s">
-        <v>199</v>
+        <v>50</v>
       </c>
       <c r="F46" t="s">
-        <v>211</v>
+        <v>175</v>
       </c>
       <c r="G46" t="s">
-        <v>199</v>
+        <v>50</v>
       </c>
       <c r="H46" t="s">
-        <v>211</v>
+        <v>175</v>
       </c>
       <c r="I46" t="s">
-        <v>199</v>
+        <v>50</v>
       </c>
       <c r="J46" t="s">
-        <v>29</v>
+        <v>130</v>
       </c>
       <c r="K46">
         <v>180</v>
@@ -3776,39 +3731,39 @@
         <v>22</v>
       </c>
       <c r="M46" t="s">
-        <v>188</v>
+        <v>157</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="B47" t="s">
-        <v>188</v>
+        <v>157</v>
       </c>
       <c r="C47" t="s">
+        <v>158</v>
+      </c>
+      <c r="D47" t="s">
         <v>189</v>
       </c>
-      <c r="D47" t="s">
-        <v>86</v>
-      </c>
       <c r="E47" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="F47" t="s">
-        <v>86</v>
+        <v>189</v>
       </c>
       <c r="G47" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="H47" t="s">
-        <v>86</v>
+        <v>189</v>
       </c>
       <c r="I47" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="J47" t="s">
-        <v>29</v>
+        <v>130</v>
       </c>
       <c r="K47">
         <v>180</v>
@@ -3817,39 +3772,39 @@
         <v>22</v>
       </c>
       <c r="M47" t="s">
-        <v>188</v>
+        <v>157</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="B48" t="s">
-        <v>188</v>
+        <v>157</v>
       </c>
       <c r="C48" t="s">
-        <v>189</v>
+        <v>158</v>
       </c>
       <c r="D48" t="s">
-        <v>203</v>
+        <v>84</v>
       </c>
       <c r="E48" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="F48" t="s">
-        <v>203</v>
+        <v>84</v>
       </c>
       <c r="G48" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="H48" t="s">
-        <v>203</v>
+        <v>84</v>
       </c>
       <c r="I48" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="J48" t="s">
-        <v>29</v>
+        <v>130</v>
       </c>
       <c r="K48">
         <v>180</v>
@@ -3858,241 +3813,241 @@
         <v>22</v>
       </c>
       <c r="M48" t="s">
-        <v>188</v>
+        <v>157</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="B49" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C49" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="D49" t="s">
-        <v>216</v>
+        <v>108</v>
       </c>
       <c r="E49" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="F49" t="s">
-        <v>216</v>
+        <v>108</v>
       </c>
       <c r="G49" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="H49" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="I49" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="J49" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="K49">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="L49" t="s">
         <v>22</v>
       </c>
       <c r="M49" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="B50" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="C50" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="D50" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E50" t="s">
-        <v>219</v>
+        <v>62</v>
       </c>
       <c r="F50" t="s">
-        <v>205</v>
+        <v>75</v>
       </c>
       <c r="G50" t="s">
-        <v>219</v>
+        <v>62</v>
       </c>
       <c r="H50" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="I50" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="J50" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="K50">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="L50" t="s">
-        <v>22</v>
+        <v>131</v>
       </c>
       <c r="M50" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="B51" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="C51" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="D51" t="s">
-        <v>34</v>
+        <v>207</v>
       </c>
       <c r="E51" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="F51" t="s">
-        <v>34</v>
+        <v>207</v>
       </c>
       <c r="G51" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="H51" t="s">
-        <v>34</v>
+        <v>209</v>
       </c>
       <c r="I51" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="J51" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="K51">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="L51" t="s">
         <v>22</v>
       </c>
       <c r="M51" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="B52" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="C52" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="D52" t="s">
-        <v>108</v>
+        <v>207</v>
       </c>
       <c r="E52" t="s">
-        <v>221</v>
+        <v>163</v>
       </c>
       <c r="F52" t="s">
-        <v>108</v>
+        <v>207</v>
       </c>
       <c r="G52" t="s">
-        <v>221</v>
+        <v>163</v>
       </c>
       <c r="H52" t="s">
-        <v>108</v>
+        <v>209</v>
       </c>
       <c r="I52" t="s">
-        <v>221</v>
+        <v>16</v>
       </c>
       <c r="J52" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="K52">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="L52" t="s">
         <v>22</v>
       </c>
       <c r="M52" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B53" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="C53" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="D53" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="E53" t="s">
-        <v>226</v>
+        <v>70</v>
       </c>
       <c r="F53" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="G53" t="s">
-        <v>226</v>
+        <v>70</v>
       </c>
       <c r="H53" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="I53" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="J53" t="s">
         <v>21</v>
       </c>
       <c r="K53">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="L53" t="s">
         <v>22</v>
       </c>
       <c r="M53" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="B54" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="C54" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="D54" t="s">
-        <v>232</v>
+        <v>152</v>
       </c>
       <c r="E54" t="s">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="F54" t="s">
-        <v>233</v>
+        <v>152</v>
       </c>
       <c r="G54" t="s">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="H54" t="s">
-        <v>234</v>
+        <v>152</v>
       </c>
       <c r="I54" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="J54" t="s">
         <v>21</v>
@@ -4101,162 +4056,162 @@
         <v>270</v>
       </c>
       <c r="L54" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="M54" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="B55" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="C55" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
       <c r="D55" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="E55" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="F55" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="G55" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="H55" t="s">
-        <v>240</v>
+        <v>152</v>
       </c>
       <c r="I55" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="J55" t="s">
         <v>21</v>
       </c>
       <c r="K55">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="L55" t="s">
         <v>22</v>
       </c>
       <c r="M55" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="B56" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="C56" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
       <c r="D56" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="E56" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="F56" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="G56" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="H56" t="s">
-        <v>240</v>
+        <v>152</v>
       </c>
       <c r="I56" t="s">
-        <v>16</v>
+        <v>223</v>
       </c>
       <c r="J56" t="s">
         <v>21</v>
       </c>
       <c r="K56">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="L56" t="s">
         <v>22</v>
       </c>
       <c r="M56" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="B57" t="s">
-        <v>244</v>
+        <v>212</v>
       </c>
       <c r="C57" t="s">
-        <v>245</v>
+        <v>213</v>
       </c>
       <c r="D57" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="E57" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="F57" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="G57" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="H57" t="s">
-        <v>247</v>
+        <v>152</v>
       </c>
       <c r="I57" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="J57" t="s">
         <v>21</v>
       </c>
       <c r="K57">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="L57" t="s">
         <v>22</v>
       </c>
       <c r="M57" t="s">
-        <v>244</v>
+        <v>212</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="B58" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="C58" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="D58" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="E58" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="F58" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="G58" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="H58" t="s">
-        <v>183</v>
+        <v>231</v>
       </c>
       <c r="I58" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="J58" t="s">
         <v>21</v>
@@ -4268,94 +4223,94 @@
         <v>22</v>
       </c>
       <c r="M58" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="B59" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C59" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="D59" t="s">
-        <v>183</v>
+        <v>145</v>
       </c>
       <c r="E59" t="s">
-        <v>251</v>
+        <v>32</v>
       </c>
       <c r="F59" t="s">
-        <v>183</v>
+        <v>145</v>
       </c>
       <c r="G59" t="s">
-        <v>251</v>
+        <v>32</v>
       </c>
       <c r="H59" t="s">
-        <v>183</v>
+        <v>236</v>
       </c>
       <c r="I59" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="J59" t="s">
         <v>21</v>
       </c>
       <c r="K59">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="L59" t="s">
         <v>22</v>
       </c>
       <c r="M59" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="B60" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C60" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D60" t="s">
-        <v>183</v>
+        <v>241</v>
       </c>
       <c r="E60" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="F60" t="s">
-        <v>183</v>
+        <v>241</v>
       </c>
       <c r="G60" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="H60" t="s">
-        <v>183</v>
+        <v>113</v>
       </c>
       <c r="I60" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="J60" t="s">
         <v>21</v>
       </c>
       <c r="K60">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="L60" t="s">
         <v>22</v>
       </c>
       <c r="M60" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="B61" t="s">
         <v>244</v>
@@ -4364,22 +4319,22 @@
         <v>245</v>
       </c>
       <c r="D61" t="s">
-        <v>183</v>
+        <v>246</v>
       </c>
       <c r="E61" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="F61" t="s">
-        <v>183</v>
+        <v>246</v>
       </c>
       <c r="G61" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="H61" t="s">
-        <v>183</v>
+        <v>246</v>
       </c>
       <c r="I61" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="J61" t="s">
         <v>21</v>
@@ -4396,31 +4351,31 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="B62" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C62" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="D62" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="E62" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="F62" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="G62" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="H62" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="I62" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="J62" t="s">
         <v>21</v>
@@ -4432,36 +4387,36 @@
         <v>22</v>
       </c>
       <c r="M62" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="B63" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="C63" t="s">
-        <v>268</v>
+        <v>229</v>
       </c>
       <c r="D63" t="s">
-        <v>176</v>
+        <v>242</v>
       </c>
       <c r="E63" t="s">
-        <v>85</v>
+        <v>258</v>
       </c>
       <c r="F63" t="s">
-        <v>176</v>
+        <v>242</v>
       </c>
       <c r="G63" t="s">
-        <v>85</v>
+        <v>258</v>
       </c>
       <c r="H63" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="I63" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="J63" t="s">
         <v>21</v>
@@ -4473,36 +4428,36 @@
         <v>22</v>
       </c>
       <c r="M63" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="B64" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="C64" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="D64" t="s">
-        <v>198</v>
+        <v>264</v>
       </c>
       <c r="E64" t="s">
-        <v>67</v>
+        <v>265</v>
       </c>
       <c r="F64" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="G64" t="s">
-        <v>67</v>
+        <v>266</v>
       </c>
       <c r="H64" t="s">
-        <v>274</v>
+        <v>109</v>
       </c>
       <c r="I64" t="s">
-        <v>67</v>
+        <v>266</v>
       </c>
       <c r="J64" t="s">
         <v>21</v>
@@ -4511,285 +4466,285 @@
         <v>0</v>
       </c>
       <c r="L64" t="s">
-        <v>22</v>
+        <v>131</v>
       </c>
       <c r="M64" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="B65" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="C65" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="D65" t="s">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="E65" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="F65" t="s">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="G65" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="H65" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="I65" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="J65" t="s">
         <v>21</v>
       </c>
       <c r="K65">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="L65" t="s">
-        <v>22</v>
+        <v>131</v>
       </c>
       <c r="M65" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="B66" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C66" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="D66" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="E66" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="F66" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="G66" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="H66" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="I66" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="J66" t="s">
         <v>21</v>
       </c>
       <c r="K66">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="L66" t="s">
         <v>22</v>
       </c>
       <c r="M66" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="B67" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="C67" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="D67" t="s">
-        <v>67</v>
+        <v>283</v>
       </c>
       <c r="E67" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="F67" t="s">
-        <v>67</v>
+        <v>283</v>
       </c>
       <c r="G67" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="H67" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="I67" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="J67" t="s">
         <v>21</v>
       </c>
       <c r="K67">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="L67" t="s">
         <v>22</v>
       </c>
       <c r="M67" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B68" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C68" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="D68" t="s">
-        <v>295</v>
+        <v>246</v>
       </c>
       <c r="E68" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="F68" t="s">
-        <v>133</v>
+        <v>246</v>
       </c>
       <c r="G68" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="H68" t="s">
-        <v>133</v>
+        <v>246</v>
       </c>
       <c r="I68" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="J68" t="s">
         <v>21</v>
       </c>
       <c r="K68">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="L68" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="M68" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="B69" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="C69" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="D69" t="s">
-        <v>176</v>
+        <v>247</v>
       </c>
       <c r="E69" t="s">
-        <v>301</v>
+        <v>222</v>
       </c>
       <c r="F69" t="s">
-        <v>176</v>
+        <v>247</v>
       </c>
       <c r="G69" t="s">
-        <v>301</v>
+        <v>222</v>
       </c>
       <c r="H69" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="I69" t="s">
-        <v>303</v>
+        <v>222</v>
       </c>
       <c r="J69" t="s">
         <v>21</v>
       </c>
       <c r="K69">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="L69" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="M69" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="B70" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="C70" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="D70" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="E70" t="s">
-        <v>49</v>
+        <v>297</v>
       </c>
       <c r="F70" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="G70" t="s">
-        <v>49</v>
+        <v>298</v>
       </c>
       <c r="H70" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="I70" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="J70" t="s">
         <v>21</v>
       </c>
       <c r="K70">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="L70" t="s">
-        <v>22</v>
+        <v>131</v>
       </c>
       <c r="M70" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="B71" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="C71" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="D71" t="s">
-        <v>251</v>
+        <v>16</v>
       </c>
       <c r="E71" t="s">
-        <v>313</v>
+        <v>159</v>
       </c>
       <c r="F71" t="s">
-        <v>251</v>
+        <v>16</v>
       </c>
       <c r="G71" t="s">
-        <v>313</v>
+        <v>159</v>
       </c>
       <c r="H71" t="s">
-        <v>251</v>
+        <v>304</v>
       </c>
       <c r="I71" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="J71" t="s">
         <v>21</v>
@@ -4801,36 +4756,36 @@
         <v>22</v>
       </c>
       <c r="M71" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="B72" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="C72" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D72" t="s">
-        <v>317</v>
+        <v>51</v>
       </c>
       <c r="E72" t="s">
-        <v>313</v>
+        <v>122</v>
       </c>
       <c r="F72" t="s">
-        <v>317</v>
+        <v>51</v>
       </c>
       <c r="G72" t="s">
-        <v>313</v>
+        <v>122</v>
       </c>
       <c r="H72" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="I72" t="s">
-        <v>318</v>
+        <v>122</v>
       </c>
       <c r="J72" t="s">
         <v>21</v>
@@ -4842,200 +4797,200 @@
         <v>22</v>
       </c>
       <c r="M72" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="B73" t="s">
-        <v>320</v>
+        <v>106</v>
       </c>
       <c r="C73" t="s">
-        <v>321</v>
+        <v>107</v>
       </c>
       <c r="D73" t="s">
-        <v>322</v>
+        <v>16</v>
       </c>
       <c r="E73" t="s">
-        <v>254</v>
+        <v>311</v>
       </c>
       <c r="F73" t="s">
-        <v>322</v>
+        <v>16</v>
       </c>
       <c r="G73" t="s">
-        <v>254</v>
+        <v>311</v>
       </c>
       <c r="H73" t="s">
-        <v>323</v>
+        <v>16</v>
       </c>
       <c r="I73" t="s">
-        <v>254</v>
+        <v>312</v>
       </c>
       <c r="J73" t="s">
         <v>21</v>
       </c>
       <c r="K73">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="L73" t="s">
         <v>22</v>
       </c>
       <c r="M73" t="s">
-        <v>320</v>
+        <v>111</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="B74" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="C74" t="s">
-        <v>326</v>
+        <v>107</v>
       </c>
       <c r="D74" t="s">
-        <v>137</v>
+        <v>57</v>
       </c>
       <c r="E74" t="s">
-        <v>327</v>
+        <v>51</v>
       </c>
       <c r="F74" t="s">
-        <v>137</v>
+        <v>57</v>
       </c>
       <c r="G74" t="s">
-        <v>328</v>
+        <v>51</v>
       </c>
       <c r="H74" t="s">
-        <v>329</v>
+        <v>57</v>
       </c>
       <c r="I74" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="J74" t="s">
         <v>21</v>
       </c>
       <c r="K74">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="L74" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="M74" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="B75" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="C75" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="D75" t="s">
-        <v>334</v>
+        <v>165</v>
       </c>
       <c r="E75" t="s">
-        <v>171</v>
+        <v>230</v>
       </c>
       <c r="F75" t="s">
-        <v>334</v>
+        <v>165</v>
       </c>
       <c r="G75" t="s">
-        <v>171</v>
+        <v>230</v>
       </c>
       <c r="H75" t="s">
-        <v>334</v>
+        <v>165</v>
       </c>
       <c r="I75" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="J75" t="s">
         <v>21</v>
       </c>
       <c r="K75">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="L75" t="s">
         <v>22</v>
       </c>
       <c r="M75" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="B76" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="C76" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
       <c r="D76" t="s">
-        <v>16</v>
+        <v>189</v>
       </c>
       <c r="E76" t="s">
-        <v>339</v>
+        <v>230</v>
       </c>
       <c r="F76" t="s">
-        <v>16</v>
+        <v>189</v>
       </c>
       <c r="G76" t="s">
-        <v>339</v>
+        <v>230</v>
       </c>
       <c r="H76" t="s">
-        <v>340</v>
+        <v>189</v>
       </c>
       <c r="I76" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
       <c r="J76" t="s">
         <v>21</v>
       </c>
       <c r="K76">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="L76" t="s">
         <v>22</v>
       </c>
       <c r="M76" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>342</v>
+        <v>323</v>
       </c>
       <c r="B77" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
       <c r="C77" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="D77" t="s">
-        <v>251</v>
+        <v>326</v>
       </c>
       <c r="E77" t="s">
-        <v>345</v>
+        <v>27</v>
       </c>
       <c r="F77" t="s">
-        <v>251</v>
+        <v>326</v>
       </c>
       <c r="G77" t="s">
-        <v>345</v>
+        <v>27</v>
       </c>
       <c r="H77" t="s">
-        <v>251</v>
+        <v>327</v>
       </c>
       <c r="I77" t="s">
-        <v>346</v>
+        <v>27</v>
       </c>
       <c r="J77" t="s">
         <v>21</v>
@@ -5047,77 +5002,77 @@
         <v>22</v>
       </c>
       <c r="M77" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>347</v>
+        <v>329</v>
       </c>
       <c r="B78" t="s">
-        <v>130</v>
+        <v>330</v>
       </c>
       <c r="C78" t="s">
-        <v>131</v>
+        <v>331</v>
       </c>
       <c r="D78" t="s">
-        <v>16</v>
+        <v>332</v>
       </c>
       <c r="E78" t="s">
-        <v>348</v>
+        <v>149</v>
       </c>
       <c r="F78" t="s">
-        <v>16</v>
+        <v>332</v>
       </c>
       <c r="G78" t="s">
-        <v>348</v>
+        <v>149</v>
       </c>
       <c r="H78" t="s">
-        <v>16</v>
+        <v>333</v>
       </c>
       <c r="I78" t="s">
-        <v>349</v>
+        <v>149</v>
       </c>
       <c r="J78" t="s">
         <v>21</v>
       </c>
       <c r="K78">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="L78" t="s">
         <v>22</v>
       </c>
       <c r="M78" t="s">
-        <v>135</v>
+        <v>330</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="B79" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="C79" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="D79" t="s">
-        <v>352</v>
+        <v>92</v>
       </c>
       <c r="E79" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="F79" t="s">
-        <v>352</v>
+        <v>92</v>
       </c>
       <c r="G79" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="H79" t="s">
-        <v>352</v>
+        <v>92</v>
       </c>
       <c r="I79" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="J79" t="s">
         <v>21</v>
@@ -5129,200 +5084,200 @@
         <v>22</v>
       </c>
       <c r="M79" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>356</v>
+        <v>339</v>
       </c>
       <c r="B80" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="C80" t="s">
-        <v>358</v>
+        <v>49</v>
       </c>
       <c r="D80" t="s">
-        <v>193</v>
+        <v>341</v>
       </c>
       <c r="E80" t="s">
-        <v>359</v>
+        <v>163</v>
       </c>
       <c r="F80" t="s">
-        <v>193</v>
+        <v>341</v>
       </c>
       <c r="G80" t="s">
-        <v>359</v>
+        <v>163</v>
       </c>
       <c r="H80" t="s">
-        <v>193</v>
+        <v>341</v>
       </c>
       <c r="I80" t="s">
-        <v>360</v>
+        <v>342</v>
       </c>
       <c r="J80" t="s">
         <v>21</v>
       </c>
       <c r="K80">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="L80" t="s">
         <v>22</v>
       </c>
       <c r="M80" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>362</v>
+        <v>344</v>
       </c>
       <c r="B81" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="C81" t="s">
-        <v>358</v>
+        <v>49</v>
       </c>
       <c r="D81" t="s">
-        <v>89</v>
+        <v>247</v>
       </c>
       <c r="E81" t="s">
-        <v>359</v>
+        <v>163</v>
       </c>
       <c r="F81" t="s">
-        <v>89</v>
+        <v>247</v>
       </c>
       <c r="G81" t="s">
-        <v>359</v>
+        <v>163</v>
       </c>
       <c r="H81" t="s">
-        <v>89</v>
+        <v>247</v>
       </c>
       <c r="I81" t="s">
-        <v>360</v>
+        <v>342</v>
       </c>
       <c r="J81" t="s">
         <v>21</v>
       </c>
       <c r="K81">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="L81" t="s">
         <v>22</v>
       </c>
       <c r="M81" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="B82" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="C82" t="s">
-        <v>365</v>
+        <v>49</v>
       </c>
       <c r="D82" t="s">
-        <v>98</v>
+        <v>348</v>
       </c>
       <c r="E82" t="s">
-        <v>366</v>
+        <v>58</v>
       </c>
       <c r="F82" t="s">
-        <v>98</v>
+        <v>348</v>
       </c>
       <c r="G82" t="s">
-        <v>366</v>
+        <v>58</v>
       </c>
       <c r="H82" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="I82" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="J82" t="s">
         <v>21</v>
       </c>
       <c r="K82">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="L82" t="s">
         <v>22</v>
       </c>
       <c r="M82" t="s">
-        <v>368</v>
+        <v>346</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>369</v>
+        <v>350</v>
       </c>
       <c r="B83" t="s">
-        <v>370</v>
+        <v>345</v>
       </c>
       <c r="C83" t="s">
-        <v>371</v>
+        <v>49</v>
       </c>
       <c r="D83" t="s">
-        <v>372</v>
+        <v>32</v>
       </c>
       <c r="E83" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="F83" t="s">
-        <v>372</v>
+        <v>32</v>
       </c>
       <c r="G83" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="H83" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
       <c r="I83" t="s">
-        <v>373</v>
+        <v>182</v>
       </c>
       <c r="J83" t="s">
         <v>21</v>
       </c>
       <c r="K83">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="L83" t="s">
         <v>22</v>
       </c>
       <c r="M83" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>374</v>
+        <v>352</v>
       </c>
       <c r="B84" t="s">
-        <v>375</v>
+        <v>335</v>
       </c>
       <c r="C84" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="D84" t="s">
-        <v>116</v>
+        <v>353</v>
       </c>
       <c r="E84" t="s">
-        <v>376</v>
+        <v>311</v>
       </c>
       <c r="F84" t="s">
-        <v>116</v>
+        <v>353</v>
       </c>
       <c r="G84" t="s">
-        <v>376</v>
+        <v>311</v>
       </c>
       <c r="H84" t="s">
-        <v>116</v>
+        <v>353</v>
       </c>
       <c r="I84" t="s">
-        <v>377</v>
+        <v>312</v>
       </c>
       <c r="J84" t="s">
         <v>21</v>
@@ -5334,118 +5289,118 @@
         <v>22</v>
       </c>
       <c r="M84" t="s">
-        <v>378</v>
+        <v>338</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>379</v>
+        <v>354</v>
       </c>
       <c r="B85" t="s">
-        <v>380</v>
+        <v>335</v>
       </c>
       <c r="C85" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="D85" t="s">
-        <v>226</v>
+        <v>355</v>
       </c>
       <c r="E85" t="s">
-        <v>381</v>
+        <v>160</v>
       </c>
       <c r="F85" t="s">
-        <v>226</v>
+        <v>355</v>
       </c>
       <c r="G85" t="s">
-        <v>381</v>
+        <v>160</v>
       </c>
       <c r="H85" t="s">
-        <v>226</v>
+        <v>356</v>
       </c>
       <c r="I85" t="s">
-        <v>382</v>
+        <v>160</v>
       </c>
       <c r="J85" t="s">
         <v>21</v>
       </c>
       <c r="K85">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="L85" t="s">
         <v>22</v>
       </c>
       <c r="M85" t="s">
-        <v>383</v>
+        <v>338</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>384</v>
+        <v>357</v>
       </c>
       <c r="B86" t="s">
-        <v>385</v>
+        <v>358</v>
       </c>
       <c r="C86" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="D86" t="s">
-        <v>322</v>
+        <v>359</v>
       </c>
       <c r="E86" t="s">
-        <v>381</v>
+        <v>360</v>
       </c>
       <c r="F86" t="s">
-        <v>322</v>
+        <v>359</v>
       </c>
       <c r="G86" t="s">
-        <v>381</v>
+        <v>360</v>
       </c>
       <c r="H86" t="s">
-        <v>322</v>
+        <v>359</v>
       </c>
       <c r="I86" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="J86" t="s">
         <v>21</v>
       </c>
       <c r="K86">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="L86" t="s">
         <v>22</v>
       </c>
       <c r="M86" t="s">
-        <v>386</v>
+        <v>362</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>387</v>
+        <v>363</v>
       </c>
       <c r="B87" t="s">
-        <v>385</v>
+        <v>358</v>
       </c>
       <c r="C87" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="D87" t="s">
-        <v>388</v>
+        <v>359</v>
       </c>
       <c r="E87" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="F87" t="s">
-        <v>388</v>
+        <v>359</v>
       </c>
       <c r="G87" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="H87" t="s">
-        <v>388</v>
+        <v>359</v>
       </c>
       <c r="I87" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
       <c r="J87" t="s">
         <v>21</v>
@@ -5457,159 +5412,159 @@
         <v>22</v>
       </c>
       <c r="M87" t="s">
-        <v>386</v>
+        <v>362</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>390</v>
+        <v>365</v>
       </c>
       <c r="B88" t="s">
-        <v>385</v>
+        <v>366</v>
       </c>
       <c r="C88" t="s">
-        <v>72</v>
+        <v>319</v>
       </c>
       <c r="D88" t="s">
-        <v>85</v>
+        <v>367</v>
       </c>
       <c r="E88" t="s">
-        <v>194</v>
+        <v>145</v>
       </c>
       <c r="F88" t="s">
-        <v>85</v>
+        <v>367</v>
       </c>
       <c r="G88" t="s">
-        <v>194</v>
+        <v>145</v>
       </c>
       <c r="H88" t="s">
-        <v>391</v>
+        <v>367</v>
       </c>
       <c r="I88" t="s">
-        <v>194</v>
+        <v>368</v>
       </c>
       <c r="J88" t="s">
         <v>21</v>
       </c>
       <c r="K88">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="L88" t="s">
         <v>22</v>
       </c>
       <c r="M88" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>392</v>
+        <v>370</v>
       </c>
       <c r="B89" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="C89" t="s">
-        <v>131</v>
+        <v>319</v>
       </c>
       <c r="D89" t="s">
-        <v>393</v>
+        <v>122</v>
       </c>
       <c r="E89" t="s">
-        <v>348</v>
+        <v>371</v>
       </c>
       <c r="F89" t="s">
-        <v>393</v>
+        <v>122</v>
       </c>
       <c r="G89" t="s">
-        <v>348</v>
+        <v>371</v>
       </c>
       <c r="H89" t="s">
-        <v>393</v>
+        <v>372</v>
       </c>
       <c r="I89" t="s">
-        <v>349</v>
+        <v>371</v>
       </c>
       <c r="J89" t="s">
         <v>21</v>
       </c>
       <c r="K89">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="L89" t="s">
         <v>22</v>
       </c>
       <c r="M89" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>394</v>
+        <v>373</v>
       </c>
       <c r="B90" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="C90" t="s">
-        <v>131</v>
+        <v>319</v>
       </c>
       <c r="D90" t="s">
-        <v>395</v>
+        <v>163</v>
       </c>
       <c r="E90" t="s">
-        <v>176</v>
+        <v>336</v>
       </c>
       <c r="F90" t="s">
-        <v>395</v>
+        <v>163</v>
       </c>
       <c r="G90" t="s">
-        <v>176</v>
+        <v>336</v>
       </c>
       <c r="H90" t="s">
-        <v>395</v>
+        <v>374</v>
       </c>
       <c r="I90" t="s">
-        <v>396</v>
+        <v>336</v>
       </c>
       <c r="J90" t="s">
         <v>21</v>
       </c>
       <c r="K90">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="L90" t="s">
         <v>22</v>
       </c>
       <c r="M90" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>397</v>
+        <v>375</v>
       </c>
       <c r="B91" t="s">
-        <v>398</v>
+        <v>366</v>
       </c>
       <c r="C91" t="s">
-        <v>131</v>
+        <v>319</v>
       </c>
       <c r="D91" t="s">
-        <v>66</v>
+        <v>172</v>
       </c>
       <c r="E91" t="s">
-        <v>399</v>
+        <v>376</v>
       </c>
       <c r="F91" t="s">
-        <v>66</v>
+        <v>172</v>
       </c>
       <c r="G91" t="s">
-        <v>399</v>
+        <v>376</v>
       </c>
       <c r="H91" t="s">
-        <v>66</v>
+        <v>172</v>
       </c>
       <c r="I91" t="s">
-        <v>400</v>
+        <v>377</v>
       </c>
       <c r="J91" t="s">
         <v>21</v>
@@ -5621,77 +5576,77 @@
         <v>22</v>
       </c>
       <c r="M91" t="s">
-        <v>401</v>
+        <v>369</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>402</v>
+        <v>378</v>
       </c>
       <c r="B92" t="s">
-        <v>398</v>
+        <v>366</v>
       </c>
       <c r="C92" t="s">
-        <v>131</v>
+        <v>319</v>
       </c>
       <c r="D92" t="s">
-        <v>66</v>
+        <v>122</v>
       </c>
       <c r="E92" t="s">
-        <v>85</v>
+        <v>209</v>
       </c>
       <c r="F92" t="s">
-        <v>66</v>
+        <v>122</v>
       </c>
       <c r="G92" t="s">
-        <v>85</v>
+        <v>209</v>
       </c>
       <c r="H92" t="s">
-        <v>66</v>
+        <v>379</v>
       </c>
       <c r="I92" t="s">
-        <v>403</v>
+        <v>209</v>
       </c>
       <c r="J92" t="s">
         <v>21</v>
       </c>
       <c r="K92">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="L92" t="s">
         <v>22</v>
       </c>
       <c r="M92" t="s">
-        <v>401</v>
+        <v>369</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>404</v>
+        <v>380</v>
       </c>
       <c r="B93" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="C93" t="s">
-        <v>406</v>
+        <v>382</v>
       </c>
       <c r="D93" t="s">
-        <v>407</v>
+        <v>383</v>
       </c>
       <c r="E93" t="s">
-        <v>408</v>
+        <v>384</v>
       </c>
       <c r="F93" t="s">
-        <v>407</v>
+        <v>383</v>
       </c>
       <c r="G93" t="s">
-        <v>408</v>
+        <v>384</v>
       </c>
       <c r="H93" t="s">
-        <v>407</v>
+        <v>383</v>
       </c>
       <c r="I93" t="s">
-        <v>409</v>
+        <v>385</v>
       </c>
       <c r="J93" t="s">
         <v>21</v>
@@ -5703,36 +5658,36 @@
         <v>22</v>
       </c>
       <c r="M93" t="s">
-        <v>405</v>
+        <v>386</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>410</v>
+        <v>387</v>
       </c>
       <c r="B94" t="s">
-        <v>405</v>
+        <v>43</v>
       </c>
       <c r="C94" t="s">
-        <v>406</v>
+        <v>31</v>
       </c>
       <c r="D94" t="s">
-        <v>411</v>
+        <v>246</v>
       </c>
       <c r="E94" t="s">
-        <v>408</v>
+        <v>270</v>
       </c>
       <c r="F94" t="s">
-        <v>411</v>
+        <v>246</v>
       </c>
       <c r="G94" t="s">
-        <v>408</v>
+        <v>270</v>
       </c>
       <c r="H94" t="s">
-        <v>411</v>
+        <v>246</v>
       </c>
       <c r="I94" t="s">
-        <v>412</v>
+        <v>388</v>
       </c>
       <c r="J94" t="s">
         <v>21</v>
@@ -5744,241 +5699,241 @@
         <v>22</v>
       </c>
       <c r="M94" t="s">
-        <v>405</v>
+        <v>46</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>413</v>
+        <v>389</v>
       </c>
       <c r="B95" t="s">
-        <v>414</v>
+        <v>390</v>
       </c>
       <c r="C95" t="s">
-        <v>358</v>
+        <v>31</v>
       </c>
       <c r="D95" t="s">
-        <v>415</v>
+        <v>16</v>
       </c>
       <c r="E95" t="s">
-        <v>176</v>
+        <v>391</v>
       </c>
       <c r="F95" t="s">
-        <v>415</v>
+        <v>16</v>
       </c>
       <c r="G95" t="s">
-        <v>176</v>
+        <v>391</v>
       </c>
       <c r="H95" t="s">
-        <v>415</v>
+        <v>392</v>
       </c>
       <c r="I95" t="s">
-        <v>416</v>
+        <v>391</v>
       </c>
       <c r="J95" t="s">
         <v>21</v>
       </c>
       <c r="K95">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="L95" t="s">
         <v>22</v>
       </c>
       <c r="M95" t="s">
-        <v>417</v>
+        <v>393</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>418</v>
+        <v>394</v>
       </c>
       <c r="B96" t="s">
-        <v>414</v>
+        <v>395</v>
       </c>
       <c r="C96" t="s">
-        <v>358</v>
+        <v>382</v>
       </c>
       <c r="D96" t="s">
-        <v>198</v>
+        <v>383</v>
       </c>
       <c r="E96" t="s">
-        <v>132</v>
+        <v>51</v>
       </c>
       <c r="F96" t="s">
-        <v>198</v>
+        <v>383</v>
       </c>
       <c r="G96" t="s">
-        <v>132</v>
+        <v>51</v>
       </c>
       <c r="H96" t="s">
-        <v>419</v>
+        <v>383</v>
       </c>
       <c r="I96" t="s">
-        <v>132</v>
+        <v>396</v>
       </c>
       <c r="J96" t="s">
         <v>21</v>
       </c>
       <c r="K96">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="L96" t="s">
         <v>22</v>
       </c>
       <c r="M96" t="s">
-        <v>417</v>
+        <v>397</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>420</v>
+        <v>398</v>
       </c>
       <c r="B97" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="C97" t="s">
-        <v>358</v>
+        <v>382</v>
       </c>
       <c r="D97" t="s">
-        <v>214</v>
+        <v>367</v>
       </c>
       <c r="E97" t="s">
-        <v>376</v>
+        <v>207</v>
       </c>
       <c r="F97" t="s">
-        <v>214</v>
+        <v>367</v>
       </c>
       <c r="G97" t="s">
-        <v>376</v>
+        <v>207</v>
       </c>
       <c r="H97" t="s">
-        <v>421</v>
+        <v>367</v>
       </c>
       <c r="I97" t="s">
-        <v>376</v>
+        <v>400</v>
       </c>
       <c r="J97" t="s">
         <v>21</v>
       </c>
       <c r="K97">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="L97" t="s">
         <v>22</v>
       </c>
       <c r="M97" t="s">
-        <v>417</v>
+        <v>401</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>422</v>
+        <v>402</v>
       </c>
       <c r="B98" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="C98" t="s">
-        <v>358</v>
+        <v>382</v>
       </c>
       <c r="D98" t="s">
-        <v>274</v>
+        <v>367</v>
       </c>
       <c r="E98" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="F98" t="s">
-        <v>274</v>
+        <v>367</v>
       </c>
       <c r="G98" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="H98" t="s">
-        <v>424</v>
+        <v>367</v>
       </c>
       <c r="I98" t="s">
-        <v>423</v>
+        <v>404</v>
       </c>
       <c r="J98" t="s">
         <v>21</v>
       </c>
       <c r="K98">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="L98" t="s">
         <v>22</v>
       </c>
       <c r="M98" t="s">
-        <v>417</v>
+        <v>401</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>425</v>
+        <v>405</v>
       </c>
       <c r="B99" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="C99" t="s">
-        <v>358</v>
+        <v>382</v>
       </c>
       <c r="D99" t="s">
-        <v>198</v>
+        <v>367</v>
       </c>
       <c r="E99" t="s">
-        <v>426</v>
+        <v>16</v>
       </c>
       <c r="F99" t="s">
-        <v>198</v>
+        <v>367</v>
       </c>
       <c r="G99" t="s">
-        <v>426</v>
+        <v>16</v>
       </c>
       <c r="H99" t="s">
-        <v>427</v>
+        <v>367</v>
       </c>
       <c r="I99" t="s">
-        <v>426</v>
+        <v>406</v>
       </c>
       <c r="J99" t="s">
         <v>21</v>
       </c>
       <c r="K99">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="L99" t="s">
         <v>22</v>
       </c>
       <c r="M99" t="s">
-        <v>417</v>
+        <v>401</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>428</v>
+        <v>407</v>
       </c>
       <c r="B100" t="s">
-        <v>429</v>
+        <v>399</v>
       </c>
       <c r="C100" t="s">
-        <v>430</v>
+        <v>382</v>
       </c>
       <c r="D100" t="s">
-        <v>431</v>
+        <v>367</v>
       </c>
       <c r="E100" t="s">
-        <v>376</v>
+        <v>408</v>
       </c>
       <c r="F100" t="s">
-        <v>431</v>
+        <v>367</v>
       </c>
       <c r="G100" t="s">
-        <v>376</v>
+        <v>408</v>
       </c>
       <c r="H100" t="s">
-        <v>431</v>
+        <v>367</v>
       </c>
       <c r="I100" t="s">
-        <v>432</v>
+        <v>409</v>
       </c>
       <c r="J100" t="s">
         <v>21</v>
@@ -5990,36 +5945,36 @@
         <v>22</v>
       </c>
       <c r="M100" t="s">
-        <v>433</v>
+        <v>401</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>434</v>
+        <v>410</v>
       </c>
       <c r="B101" t="s">
-        <v>65</v>
+        <v>411</v>
       </c>
       <c r="C101" t="s">
-        <v>53</v>
+        <v>412</v>
       </c>
       <c r="D101" t="s">
-        <v>317</v>
+        <v>413</v>
       </c>
       <c r="E101" t="s">
-        <v>301</v>
+        <v>414</v>
       </c>
       <c r="F101" t="s">
-        <v>317</v>
+        <v>413</v>
       </c>
       <c r="G101" t="s">
-        <v>301</v>
+        <v>414</v>
       </c>
       <c r="H101" t="s">
-        <v>317</v>
+        <v>413</v>
       </c>
       <c r="I101" t="s">
-        <v>435</v>
+        <v>415</v>
       </c>
       <c r="J101" t="s">
         <v>21</v>
@@ -6031,77 +5986,77 @@
         <v>22</v>
       </c>
       <c r="M101" t="s">
-        <v>69</v>
+        <v>416</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>436</v>
+        <v>417</v>
       </c>
       <c r="B102" t="s">
-        <v>437</v>
+        <v>411</v>
       </c>
       <c r="C102" t="s">
-        <v>53</v>
+        <v>412</v>
       </c>
       <c r="D102" t="s">
-        <v>438</v>
+        <v>413</v>
       </c>
       <c r="E102" t="s">
+        <v>418</v>
+      </c>
+      <c r="F102" t="s">
+        <v>413</v>
+      </c>
+      <c r="G102" t="s">
+        <v>418</v>
+      </c>
+      <c r="H102" t="s">
+        <v>413</v>
+      </c>
+      <c r="I102" t="s">
+        <v>419</v>
+      </c>
+      <c r="J102" t="s">
+        <v>21</v>
+      </c>
+      <c r="K102">
         <v>90</v>
       </c>
-      <c r="F102" t="s">
-        <v>438</v>
-      </c>
-      <c r="G102" t="s">
-        <v>90</v>
-      </c>
-      <c r="H102" t="s">
-        <v>439</v>
-      </c>
-      <c r="I102" t="s">
-        <v>90</v>
-      </c>
-      <c r="J102" t="s">
-        <v>21</v>
-      </c>
-      <c r="K102">
-        <v>0</v>
-      </c>
       <c r="L102" t="s">
         <v>22</v>
       </c>
       <c r="M102" t="s">
-        <v>440</v>
+        <v>416</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
       <c r="B103" t="s">
-        <v>442</v>
+        <v>411</v>
       </c>
       <c r="C103" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
       <c r="D103" t="s">
-        <v>348</v>
+        <v>413</v>
       </c>
       <c r="E103" t="s">
-        <v>443</v>
+        <v>421</v>
       </c>
       <c r="F103" t="s">
-        <v>348</v>
+        <v>413</v>
       </c>
       <c r="G103" t="s">
-        <v>443</v>
+        <v>421</v>
       </c>
       <c r="H103" t="s">
-        <v>348</v>
+        <v>413</v>
       </c>
       <c r="I103" t="s">
-        <v>444</v>
+        <v>422</v>
       </c>
       <c r="J103" t="s">
         <v>21</v>
@@ -6113,36 +6068,36 @@
         <v>22</v>
       </c>
       <c r="M103" t="s">
-        <v>445</v>
+        <v>416</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>446</v>
+        <v>423</v>
       </c>
       <c r="B104" t="s">
-        <v>447</v>
+        <v>411</v>
       </c>
       <c r="C104" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
       <c r="D104" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E104" t="s">
-        <v>241</v>
+        <v>424</v>
       </c>
       <c r="F104" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="G104" t="s">
-        <v>241</v>
+        <v>424</v>
       </c>
       <c r="H104" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="I104" t="s">
-        <v>448</v>
+        <v>425</v>
       </c>
       <c r="J104" t="s">
         <v>21</v>
@@ -6154,241 +6109,241 @@
         <v>22</v>
       </c>
       <c r="M104" t="s">
-        <v>449</v>
+        <v>416</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>450</v>
+        <v>426</v>
       </c>
       <c r="B105" t="s">
-        <v>447</v>
+        <v>427</v>
       </c>
       <c r="C105" t="s">
+        <v>428</v>
+      </c>
+      <c r="D105" t="s">
+        <v>429</v>
+      </c>
+      <c r="E105" t="s">
         <v>430</v>
       </c>
-      <c r="D105" t="s">
-        <v>415</v>
-      </c>
-      <c r="E105" t="s">
-        <v>46</v>
-      </c>
       <c r="F105" t="s">
-        <v>415</v>
+        <v>429</v>
       </c>
       <c r="G105" t="s">
-        <v>46</v>
+        <v>430</v>
       </c>
       <c r="H105" t="s">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="I105" t="s">
-        <v>451</v>
+        <v>432</v>
       </c>
       <c r="J105" t="s">
         <v>21</v>
       </c>
       <c r="K105">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="L105" t="s">
         <v>22</v>
       </c>
       <c r="M105" t="s">
-        <v>449</v>
+        <v>427</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>452</v>
+        <v>433</v>
       </c>
       <c r="B106" t="s">
-        <v>447</v>
+        <v>366</v>
       </c>
       <c r="C106" t="s">
-        <v>430</v>
+        <v>319</v>
       </c>
       <c r="D106" t="s">
-        <v>415</v>
+        <v>160</v>
       </c>
       <c r="E106" t="s">
-        <v>16</v>
+        <v>434</v>
       </c>
       <c r="F106" t="s">
-        <v>415</v>
+        <v>160</v>
       </c>
       <c r="G106" t="s">
-        <v>16</v>
+        <v>434</v>
       </c>
       <c r="H106" t="s">
-        <v>415</v>
+        <v>435</v>
       </c>
       <c r="I106" t="s">
-        <v>453</v>
+        <v>434</v>
       </c>
       <c r="J106" t="s">
         <v>21</v>
       </c>
       <c r="K106">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="L106" t="s">
         <v>22</v>
       </c>
       <c r="M106" t="s">
-        <v>449</v>
+        <v>369</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="B107" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C107" t="s">
-        <v>430</v>
+        <v>31</v>
       </c>
       <c r="D107" t="s">
-        <v>415</v>
+        <v>438</v>
       </c>
       <c r="E107" t="s">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="F107" t="s">
-        <v>415</v>
+        <v>438</v>
       </c>
       <c r="G107" t="s">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="H107" t="s">
-        <v>415</v>
+        <v>438</v>
       </c>
       <c r="I107" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="J107" t="s">
         <v>21</v>
       </c>
       <c r="K107">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="L107" t="s">
         <v>22</v>
       </c>
       <c r="M107" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="B108" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="C108" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
       <c r="D108" t="s">
-        <v>60</v>
+        <v>444</v>
       </c>
       <c r="E108" t="s">
-        <v>73</v>
+        <v>445</v>
       </c>
       <c r="F108" t="s">
-        <v>60</v>
+        <v>444</v>
       </c>
       <c r="G108" t="s">
-        <v>73</v>
+        <v>445</v>
       </c>
       <c r="H108" t="s">
-        <v>60</v>
+        <v>127</v>
       </c>
       <c r="I108" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="J108" t="s">
         <v>21</v>
       </c>
       <c r="K108">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="L108" t="s">
-        <v>22</v>
+        <v>131</v>
       </c>
       <c r="M108" t="s">
-        <v>460</v>
+        <v>442</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="B109" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="C109" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="D109" t="s">
-        <v>60</v>
+        <v>168</v>
       </c>
       <c r="E109" t="s">
-        <v>462</v>
+        <v>173</v>
       </c>
       <c r="F109" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="G109" t="s">
-        <v>462</v>
+        <v>173</v>
       </c>
       <c r="H109" t="s">
-        <v>60</v>
+        <v>168</v>
       </c>
       <c r="I109" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="J109" t="s">
         <v>21</v>
       </c>
       <c r="K109">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="L109" t="s">
-        <v>22</v>
+        <v>131</v>
       </c>
       <c r="M109" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="B110" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="C110" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="D110" t="s">
-        <v>60</v>
+        <v>168</v>
       </c>
       <c r="E110" t="s">
-        <v>89</v>
+        <v>186</v>
       </c>
       <c r="F110" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="G110" t="s">
-        <v>89</v>
+        <v>186</v>
       </c>
       <c r="H110" t="s">
-        <v>60</v>
+        <v>168</v>
       </c>
       <c r="I110" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="J110" t="s">
         <v>21</v>
@@ -6397,203 +6352,203 @@
         <v>270</v>
       </c>
       <c r="L110" t="s">
-        <v>22</v>
+        <v>131</v>
       </c>
       <c r="M110" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="B111" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C111" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D111" t="s">
-        <v>60</v>
+        <v>214</v>
       </c>
       <c r="E111" t="s">
-        <v>467</v>
+        <v>79</v>
       </c>
       <c r="F111" t="s">
-        <v>60</v>
+        <v>214</v>
       </c>
       <c r="G111" t="s">
-        <v>467</v>
+        <v>79</v>
       </c>
       <c r="H111" t="s">
-        <v>60</v>
+        <v>214</v>
       </c>
       <c r="I111" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="J111" t="s">
         <v>21</v>
       </c>
       <c r="K111">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="L111" t="s">
         <v>22</v>
       </c>
       <c r="M111" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="B112" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="C112" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="D112" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="E112" t="s">
-        <v>94</v>
+        <v>461</v>
       </c>
       <c r="F112" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="G112" t="s">
-        <v>94</v>
+        <v>461</v>
       </c>
       <c r="H112" t="s">
-        <v>472</v>
+        <v>27</v>
       </c>
       <c r="I112" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="J112" t="s">
         <v>21</v>
       </c>
       <c r="K112">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="L112" t="s">
-        <v>50</v>
+        <v>131</v>
       </c>
       <c r="M112" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="B113" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="C113" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="D113" t="s">
-        <v>477</v>
+        <v>403</v>
       </c>
       <c r="E113" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="F113" t="s">
-        <v>477</v>
+        <v>403</v>
       </c>
       <c r="G113" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="H113" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="I113" t="s">
-        <v>480</v>
+        <v>277</v>
       </c>
       <c r="J113" t="s">
         <v>21</v>
       </c>
       <c r="K113">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="L113" t="s">
-        <v>22</v>
+        <v>131</v>
       </c>
       <c r="M113" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="B114" t="s">
-        <v>414</v>
+        <v>469</v>
       </c>
       <c r="C114" t="s">
-        <v>358</v>
+        <v>470</v>
       </c>
       <c r="D114" t="s">
-        <v>482</v>
+        <v>418</v>
       </c>
       <c r="E114" t="s">
+        <v>471</v>
+      </c>
+      <c r="F114" t="s">
+        <v>418</v>
+      </c>
+      <c r="G114" t="s">
+        <v>471</v>
+      </c>
+      <c r="H114" t="s">
+        <v>418</v>
+      </c>
+      <c r="I114" t="s">
+        <v>472</v>
+      </c>
+      <c r="J114" t="s">
+        <v>21</v>
+      </c>
+      <c r="K114">
         <v>90</v>
       </c>
-      <c r="F114" t="s">
-        <v>482</v>
-      </c>
-      <c r="G114" t="s">
-        <v>90</v>
-      </c>
-      <c r="H114" t="s">
-        <v>483</v>
-      </c>
-      <c r="I114" t="s">
-        <v>90</v>
-      </c>
-      <c r="J114" t="s">
-        <v>21</v>
-      </c>
-      <c r="K114">
-        <v>0</v>
-      </c>
       <c r="L114" t="s">
         <v>22</v>
       </c>
       <c r="M114" t="s">
-        <v>417</v>
+        <v>469</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="B115" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="C115" t="s">
-        <v>53</v>
+        <v>475</v>
       </c>
       <c r="D115" t="s">
-        <v>263</v>
+        <v>476</v>
       </c>
       <c r="E115" t="s">
-        <v>104</v>
+        <v>189</v>
       </c>
       <c r="F115" t="s">
-        <v>263</v>
+        <v>476</v>
       </c>
       <c r="G115" t="s">
-        <v>104</v>
+        <v>189</v>
       </c>
       <c r="H115" t="s">
-        <v>263</v>
+        <v>38</v>
       </c>
       <c r="I115" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="J115" t="s">
         <v>21</v>
@@ -6605,130 +6560,48 @@
         <v>22</v>
       </c>
       <c r="M115" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="B116" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="C116" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="D116" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="E116" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="F116" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="G116" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="H116" t="s">
-        <v>152</v>
+        <v>481</v>
       </c>
       <c r="I116" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="J116" t="s">
-        <v>21</v>
+        <v>130</v>
       </c>
       <c r="K116">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="L116" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="M116" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>494</v>
-      </c>
-      <c r="B117" t="s">
-        <v>495</v>
-      </c>
-      <c r="C117" t="s">
-        <v>496</v>
-      </c>
-      <c r="D117" t="s">
-        <v>199</v>
-      </c>
-      <c r="E117" t="s">
-        <v>203</v>
-      </c>
-      <c r="F117" t="s">
-        <v>18</v>
-      </c>
-      <c r="G117" t="s">
-        <v>203</v>
-      </c>
-      <c r="H117" t="s">
-        <v>199</v>
-      </c>
-      <c r="I117" t="s">
-        <v>411</v>
-      </c>
-      <c r="J117" t="s">
-        <v>21</v>
-      </c>
-      <c r="K117">
-        <v>270</v>
-      </c>
-      <c r="L117" t="s">
-        <v>50</v>
-      </c>
-      <c r="M117" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>497</v>
-      </c>
-      <c r="B118" t="s">
-        <v>495</v>
-      </c>
-      <c r="C118" t="s">
-        <v>496</v>
-      </c>
-      <c r="D118" t="s">
-        <v>199</v>
-      </c>
-      <c r="E118" t="s">
-        <v>217</v>
-      </c>
-      <c r="F118" t="s">
-        <v>18</v>
-      </c>
-      <c r="G118" t="s">
-        <v>217</v>
-      </c>
-      <c r="H118" t="s">
-        <v>199</v>
-      </c>
-      <c r="I118" t="s">
-        <v>498</v>
-      </c>
-      <c r="J118" t="s">
-        <v>21</v>
-      </c>
-      <c r="K118">
-        <v>270</v>
-      </c>
-      <c r="L118" t="s">
-        <v>50</v>
-      </c>
-      <c r="M118" t="s">
-        <v>495</v>
+        <v>479</v>
       </c>
     </row>
   </sheetData>
